--- a/data/datos_patrimonio_final.xlsx
+++ b/data/datos_patrimonio_final.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="881">
   <si>
     <t>status</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>dni_40858548.jpg</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Roberto Enrique Chiabra Leon</t>
@@ -2942,8 +2939,8 @@
   </sheetPr>
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2972,76 +2969,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -3077,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L2">
         <v>239091.28999999899</v>
@@ -3116,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -3152,7 +3149,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3191,7 +3188,7 @@
         <v>17</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -3227,7 +3224,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L4">
         <v>1290240</v>
@@ -3266,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -3341,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -3377,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L6">
         <v>410000</v>
@@ -3416,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -3424,19 +3421,19 @@
         <v>48507818</v>
       </c>
       <c r="B7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C7" t="s">
         <v>554</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E7" t="s">
         <v>555</v>
       </c>
-      <c r="D7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E7" t="s">
-        <v>556</v>
-      </c>
       <c r="F7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -3452,7 +3449,7 @@
         <v>108</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L7">
         <v>575407.35</v>
@@ -3473,10 +3470,10 @@
         <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T7" t="s">
         <v>10</v>
@@ -3491,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -3499,16 +3496,16 @@
         <v>48164963</v>
       </c>
       <c r="B8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" t="s">
         <v>474</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" t="s">
         <v>475</v>
-      </c>
-      <c r="D8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E8" t="s">
-        <v>476</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3566,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -3602,7 +3599,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3641,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -3677,7 +3674,7 @@
         <v>38</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L10">
         <v>1171918.75</v>
@@ -3716,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -3724,19 +3721,19 @@
         <v>46646988</v>
       </c>
       <c r="B11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" t="s">
         <v>557</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" t="s">
         <v>558</v>
       </c>
-      <c r="D11" t="s">
-        <v>558</v>
-      </c>
-      <c r="E11" t="s">
-        <v>559</v>
-      </c>
       <c r="F11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -3752,7 +3749,7 @@
         <v>75</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3773,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T11" t="s">
         <v>10</v>
@@ -3791,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -3827,7 +3824,7 @@
         <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L12">
         <v>20000</v>
@@ -3866,7 +3863,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -3902,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3941,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -3977,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L14">
         <v>45568</v>
@@ -4016,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -4052,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L15">
         <v>82500</v>
@@ -4091,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -4127,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4166,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -4174,19 +4171,19 @@
         <v>44993239</v>
       </c>
       <c r="B17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" t="s">
         <v>504</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" t="s">
         <v>505</v>
       </c>
-      <c r="D17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
-      </c>
       <c r="F17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -4202,7 +4199,7 @@
         <v>75</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4223,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T17" t="s">
         <v>10</v>
@@ -4241,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -4277,7 +4274,7 @@
         <v>38</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L18">
         <v>616175.94999999995</v>
@@ -4316,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -4352,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4391,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -4466,7 +4463,7 @@
         <v>17</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -4502,7 +4499,7 @@
         <v>70</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L21">
         <v>585000</v>
@@ -4541,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -4549,35 +4546,35 @@
         <v>44338336</v>
       </c>
       <c r="B22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" t="s">
         <v>487</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" t="s">
         <v>488</v>
       </c>
-      <c r="D22" t="s">
-        <v>488</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>479</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="F22" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(H22,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L22">
         <v>99208</v>
@@ -4598,10 +4595,10 @@
         <v>-4</v>
       </c>
       <c r="R22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T22" t="s">
         <v>10</v>
@@ -4616,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -4691,7 +4688,7 @@
         <v>77</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -4766,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -4841,7 +4838,7 @@
         <v>86</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -4916,7 +4913,7 @@
         <v>91</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -4991,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -5066,7 +5063,7 @@
         <v>91</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -5141,7 +5138,7 @@
         <v>109</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -5149,35 +5146,35 @@
         <v>42878423</v>
       </c>
       <c r="B30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" t="s">
         <v>484</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" t="s">
         <v>485</v>
       </c>
-      <c r="D30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E30" t="s">
-        <v>486</v>
-      </c>
       <c r="F30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I30" t="e">
+        <v>880</v>
+      </c>
+      <c r="I30">
         <f>VLOOKUP(H30,Hoja_2!$A$1:$B$30,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L30">
         <v>41500</v>
@@ -5198,10 +5195,10 @@
         <v>3</v>
       </c>
       <c r="R30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T30" t="s">
         <v>10</v>
@@ -5216,7 +5213,7 @@
         <v>11</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -5252,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5291,7 +5288,7 @@
         <v>11</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -5366,7 +5363,7 @@
         <v>109</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -5441,7 +5438,7 @@
         <v>120</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -5477,7 +5474,7 @@
         <v>43</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L34">
         <v>70000</v>
@@ -5516,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -5552,7 +5549,7 @@
         <v>128</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L35">
         <v>6000</v>
@@ -5591,7 +5588,7 @@
         <v>91</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -5599,16 +5596,16 @@
         <v>42628319</v>
       </c>
       <c r="B36" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" t="s">
         <v>471</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" t="s">
         <v>472</v>
-      </c>
-      <c r="D36" t="s">
-        <v>472</v>
-      </c>
-      <c r="E36" t="s">
-        <v>473</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -5663,10 +5660,10 @@
         <v>2</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -5702,7 +5699,7 @@
         <v>133</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L37">
         <v>70700</v>
@@ -5741,7 +5738,7 @@
         <v>11</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -5777,7 +5774,7 @@
         <v>128</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5816,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
@@ -5891,7 +5888,7 @@
         <v>141</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -5927,7 +5924,7 @@
         <v>128</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L40">
         <v>7000</v>
@@ -5966,7 +5963,7 @@
         <v>11</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
@@ -6041,7 +6038,7 @@
         <v>17</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -6077,7 +6074,7 @@
         <v>153</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6116,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -6124,16 +6121,16 @@
         <v>41799959</v>
       </c>
       <c r="B43" t="s">
+        <v>467</v>
+      </c>
+      <c r="C43" t="s">
         <v>468</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>468</v>
+      </c>
+      <c r="E43" t="s">
         <v>469</v>
-      </c>
-      <c r="D43" t="s">
-        <v>469</v>
-      </c>
-      <c r="E43" t="s">
-        <v>470</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -6191,7 +6188,7 @@
         <v>11</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -6199,35 +6196,35 @@
         <v>41623184</v>
       </c>
       <c r="B44" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" t="s">
         <v>564</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>564</v>
+      </c>
+      <c r="E44" t="s">
         <v>565</v>
       </c>
-      <c r="D44" t="s">
-        <v>565</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F44" t="s">
-        <v>480</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="I44">
         <f>VLOOKUP(H44,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="L44">
         <v>1200</v>
@@ -6248,10 +6245,10 @@
         <v>6</v>
       </c>
       <c r="R44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T44" t="s">
         <v>10</v>
@@ -6266,7 +6263,7 @@
         <v>86</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -6302,7 +6299,7 @@
         <v>133</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L45">
         <v>250000</v>
@@ -6341,7 +6338,7 @@
         <v>11</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -6416,7 +6413,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -6424,19 +6421,19 @@
         <v>41103058</v>
       </c>
       <c r="B47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>551</v>
+      </c>
+      <c r="E47" t="s">
         <v>552</v>
       </c>
-      <c r="D47" t="s">
-        <v>552</v>
-      </c>
-      <c r="E47" t="s">
-        <v>553</v>
-      </c>
       <c r="F47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
@@ -6452,7 +6449,7 @@
         <v>75</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -6473,10 +6470,10 @@
         <v>-6</v>
       </c>
       <c r="R47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T47" t="s">
         <v>81</v>
@@ -6491,7 +6488,7 @@
         <v>11</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -6527,7 +6524,7 @@
         <v>128</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L48">
         <v>150000</v>
@@ -6566,7 +6563,7 @@
         <v>11</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -6602,7 +6599,7 @@
         <v>70</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L49">
         <v>71800</v>
@@ -6641,7 +6638,7 @@
         <v>91</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -6649,16 +6646,16 @@
         <v>40728264</v>
       </c>
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
         <v>168</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
         <v>169</v>
-      </c>
-      <c r="D50" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" t="s">
-        <v>170</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -6677,7 +6674,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L50">
         <v>911000</v>
@@ -6716,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -6724,35 +6721,35 @@
         <v>40577351</v>
       </c>
       <c r="B51" t="s">
+        <v>569</v>
+      </c>
+      <c r="C51" t="s">
         <v>570</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>570</v>
+      </c>
+      <c r="E51" t="s">
         <v>571</v>
       </c>
-      <c r="D51" t="s">
-        <v>571</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>479</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="F51" t="s">
-        <v>480</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="I51">
         <f>VLOOKUP(H51,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>28</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L51">
         <v>155000</v>
@@ -6773,10 +6770,10 @@
         <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T51" t="s">
         <v>10</v>
@@ -6791,7 +6788,7 @@
         <v>11</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -6799,19 +6796,19 @@
         <v>40383269</v>
       </c>
       <c r="B52" t="s">
+        <v>540</v>
+      </c>
+      <c r="C52" t="s">
         <v>541</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>541</v>
+      </c>
+      <c r="E52" t="s">
         <v>542</v>
       </c>
-      <c r="D52" t="s">
-        <v>542</v>
-      </c>
-      <c r="E52" t="s">
-        <v>543</v>
-      </c>
       <c r="F52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G52" t="s">
         <v>6</v>
@@ -6827,7 +6824,7 @@
         <v>75</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L52">
         <v>288655.03999999998</v>
@@ -6848,10 +6845,10 @@
         <v>-1</v>
       </c>
       <c r="R52" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T52" t="s">
         <v>81</v>
@@ -6866,7 +6863,7 @@
         <v>11</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -6874,19 +6871,19 @@
         <v>40332943</v>
       </c>
       <c r="B53" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53" t="s">
         <v>560</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>560</v>
+      </c>
+      <c r="E53" t="s">
         <v>561</v>
       </c>
-      <c r="D53" t="s">
-        <v>561</v>
-      </c>
-      <c r="E53" t="s">
-        <v>562</v>
-      </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -6902,7 +6899,7 @@
         <v>75</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L53">
         <v>253250</v>
@@ -6923,10 +6920,10 @@
         <v>-5</v>
       </c>
       <c r="R53" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T53" t="s">
         <v>10</v>
@@ -6941,7 +6938,7 @@
         <v>11</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -6949,16 +6946,16 @@
         <v>40242430</v>
       </c>
       <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
         <v>171</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" t="s">
         <v>172</v>
-      </c>
-      <c r="D54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" t="s">
-        <v>173</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
@@ -6977,7 +6974,7 @@
         <v>16</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L54">
         <v>31703.94</v>
@@ -7016,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -7024,16 +7021,16 @@
         <v>40204874</v>
       </c>
       <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
         <v>174</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="s">
         <v>175</v>
-      </c>
-      <c r="D55" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" t="s">
-        <v>176</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -7052,7 +7049,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L55">
         <v>432270</v>
@@ -7091,7 +7088,7 @@
         <v>11</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -7099,19 +7096,19 @@
         <v>40160380</v>
       </c>
       <c r="B56" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56" t="s">
         <v>512</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" t="s">
         <v>513</v>
       </c>
-      <c r="D56" t="s">
-        <v>513</v>
-      </c>
-      <c r="E56" t="s">
-        <v>514</v>
-      </c>
       <c r="F56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
@@ -7127,7 +7124,7 @@
         <v>75</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L56">
         <v>11470</v>
@@ -7148,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T56" t="s">
         <v>10</v>
@@ -7166,7 +7163,7 @@
         <v>86</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -7174,16 +7171,16 @@
         <v>32971154</v>
       </c>
       <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
         <v>177</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" t="s">
         <v>178</v>
-      </c>
-      <c r="D57" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" t="s">
-        <v>179</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -7202,7 +7199,7 @@
         <v>16</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L57">
         <v>348000</v>
@@ -7241,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -7249,16 +7246,16 @@
         <v>32923902</v>
       </c>
       <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
         <v>180</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
         <v>181</v>
-      </c>
-      <c r="D58" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58" t="s">
-        <v>182</v>
       </c>
       <c r="F58" t="s">
         <v>5</v>
@@ -7277,7 +7274,7 @@
         <v>133</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L58">
         <v>193445.19</v>
@@ -7316,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -7324,16 +7321,16 @@
         <v>31031443</v>
       </c>
       <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
         <v>183</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
         <v>184</v>
-      </c>
-      <c r="D59" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" t="s">
-        <v>185</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -7342,14 +7339,14 @@
         <v>6</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I59">
         <f>VLOOKUP(H59,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>90</v>
@@ -7391,7 +7388,7 @@
         <v>120</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -7399,16 +7396,16 @@
         <v>31027035</v>
       </c>
       <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" t="s">
         <v>189</v>
-      </c>
-      <c r="D60" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" t="s">
-        <v>190</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -7417,17 +7414,17 @@
         <v>6</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I60">
         <f>VLOOKUP(H60,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L60">
         <v>13000</v>
@@ -7463,10 +7460,10 @@
         <v>2</v>
       </c>
       <c r="W60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -7474,16 +7471,16 @@
         <v>29632775</v>
       </c>
       <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
         <v>193</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
         <v>194</v>
-      </c>
-      <c r="D61" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" t="s">
-        <v>195</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -7502,7 +7499,7 @@
         <v>43</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -7541,7 +7538,7 @@
         <v>11</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -7549,16 +7546,16 @@
         <v>29423212</v>
       </c>
       <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
         <v>196</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
         <v>197</v>
-      </c>
-      <c r="D62" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" t="s">
-        <v>198</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -7577,7 +7574,7 @@
         <v>38</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L62">
         <v>1131000</v>
@@ -7616,7 +7613,7 @@
         <v>91</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -7624,35 +7621,35 @@
         <v>29410132</v>
       </c>
       <c r="B63" t="s">
+        <v>492</v>
+      </c>
+      <c r="C63" t="s">
         <v>493</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>493</v>
+      </c>
+      <c r="E63" t="s">
         <v>494</v>
       </c>
-      <c r="D63" t="s">
-        <v>494</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="F63" t="s">
-        <v>480</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="I63">
         <f>VLOOKUP(H63,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>19</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L63">
         <v>290071.27</v>
@@ -7673,10 +7670,10 @@
         <v>-9</v>
       </c>
       <c r="R63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T63" t="s">
         <v>10</v>
@@ -7691,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -7699,16 +7696,16 @@
         <v>29384343</v>
       </c>
       <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
         <v>200</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
         <v>201</v>
-      </c>
-      <c r="D64" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" t="s">
-        <v>202</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -7727,7 +7724,7 @@
         <v>102</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L64">
         <v>107000</v>
@@ -7763,10 +7760,10 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -7774,16 +7771,16 @@
         <v>29299579</v>
       </c>
       <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
         <v>205</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" t="s">
         <v>206</v>
-      </c>
-      <c r="D65" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" t="s">
-        <v>207</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -7792,17 +7789,17 @@
         <v>6</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I65">
         <f>VLOOKUP(H65,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -7841,7 +7838,7 @@
         <v>11</v>
       </c>
       <c r="X65" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -7849,16 +7846,16 @@
         <v>28300174</v>
       </c>
       <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
         <v>208</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" t="s">
         <v>209</v>
-      </c>
-      <c r="D66" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" t="s">
-        <v>210</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -7877,7 +7874,7 @@
         <v>70</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L66">
         <v>7070000</v>
@@ -7916,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="X66" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -7924,16 +7921,16 @@
         <v>27361499</v>
       </c>
       <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
         <v>211</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" t="s">
         <v>212</v>
-      </c>
-      <c r="D67" t="s">
-        <v>212</v>
-      </c>
-      <c r="E67" t="s">
-        <v>213</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -7942,17 +7939,17 @@
         <v>6</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I67">
         <f>VLOOKUP(H67,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -7991,7 +7988,7 @@
         <v>91</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -7999,16 +7996,16 @@
         <v>27080597</v>
       </c>
       <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" t="s">
         <v>215</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
         <v>216</v>
-      </c>
-      <c r="D68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" t="s">
-        <v>217</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -8027,7 +8024,7 @@
         <v>133</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -8066,7 +8063,7 @@
         <v>77</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -8074,16 +8071,16 @@
         <v>25700579</v>
       </c>
       <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
         <v>218</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
         <v>219</v>
-      </c>
-      <c r="D69" t="s">
-        <v>219</v>
-      </c>
-      <c r="E69" t="s">
-        <v>220</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -8102,7 +8099,7 @@
         <v>43</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -8141,7 +8138,7 @@
         <v>91</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -8149,16 +8146,16 @@
         <v>25567150</v>
       </c>
       <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
         <v>222</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
         <v>223</v>
-      </c>
-      <c r="D70" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" t="s">
-        <v>224</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -8177,7 +8174,7 @@
         <v>75</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L70">
         <v>5000</v>
@@ -8216,7 +8213,7 @@
         <v>11</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -8224,16 +8221,16 @@
         <v>25542661</v>
       </c>
       <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" t="s">
         <v>226</v>
-      </c>
-      <c r="D71" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" t="s">
-        <v>227</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
@@ -8252,7 +8249,7 @@
         <v>70</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L71">
         <v>45854.67</v>
@@ -8291,7 +8288,7 @@
         <v>109</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
@@ -8299,16 +8296,16 @@
         <v>24711696</v>
       </c>
       <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
         <v>229</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" t="s">
         <v>230</v>
-      </c>
-      <c r="D72" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" t="s">
-        <v>231</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
@@ -8317,17 +8314,17 @@
         <v>6</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I72">
         <f>VLOOKUP(H72,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L72">
         <v>450000</v>
@@ -8366,7 +8363,7 @@
         <v>109</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
@@ -8374,16 +8371,16 @@
         <v>23977149</v>
       </c>
       <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
         <v>233</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
         <v>234</v>
-      </c>
-      <c r="D73" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" t="s">
-        <v>235</v>
       </c>
       <c r="F73" t="s">
         <v>5</v>
@@ -8438,10 +8435,10 @@
         <v>4</v>
       </c>
       <c r="W73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
@@ -8449,16 +8446,16 @@
         <v>23901989</v>
       </c>
       <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" t="s">
         <v>237</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" t="s">
         <v>238</v>
-      </c>
-      <c r="D74" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" t="s">
-        <v>239</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
@@ -8477,7 +8474,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L74">
         <v>420193.03</v>
@@ -8513,10 +8510,10 @@
         <v>4</v>
       </c>
       <c r="W74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
@@ -8524,35 +8521,35 @@
         <v>23266777</v>
       </c>
       <c r="B75" t="s">
+        <v>515</v>
+      </c>
+      <c r="C75" t="s">
         <v>516</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>516</v>
+      </c>
+      <c r="E75" t="s">
         <v>517</v>
       </c>
-      <c r="D75" t="s">
-        <v>517</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="F75" t="s">
-        <v>480</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="I75">
         <f>VLOOKUP(H75,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>22</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L75">
         <v>378226.17</v>
@@ -8573,10 +8570,10 @@
         <v>7</v>
       </c>
       <c r="R75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T75" t="s">
         <v>10</v>
@@ -8591,7 +8588,7 @@
         <v>11</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
@@ -8599,16 +8596,16 @@
         <v>23017616</v>
       </c>
       <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
         <v>242</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" t="s">
         <v>243</v>
-      </c>
-      <c r="D76" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" t="s">
-        <v>244</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
@@ -8627,7 +8624,7 @@
         <v>70</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L76">
         <v>3766282.94</v>
@@ -8666,7 +8663,7 @@
         <v>86</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
@@ -8674,16 +8671,16 @@
         <v>22510256</v>
       </c>
       <c r="B77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" t="s">
         <v>246</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
         <v>247</v>
-      </c>
-      <c r="D77" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" t="s">
-        <v>248</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -8692,17 +8689,17 @@
         <v>6</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I77">
         <f>VLOOKUP(H77,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L77">
         <v>4000</v>
@@ -8741,7 +8738,7 @@
         <v>91</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
@@ -8749,35 +8746,35 @@
         <v>22423252</v>
       </c>
       <c r="B78" t="s">
+        <v>520</v>
+      </c>
+      <c r="C78" t="s">
         <v>521</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>521</v>
+      </c>
+      <c r="E78" t="s">
         <v>522</v>
       </c>
-      <c r="D78" t="s">
-        <v>522</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>479</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="F78" t="s">
-        <v>480</v>
-      </c>
-      <c r="G78" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="I78">
         <f>VLOOKUP(H78,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>23</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L78">
         <v>351310.07</v>
@@ -8798,10 +8795,10 @@
         <v>1</v>
       </c>
       <c r="R78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T78" t="s">
         <v>10</v>
@@ -8816,7 +8813,7 @@
         <v>11</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
@@ -8824,16 +8821,16 @@
         <v>22290935</v>
       </c>
       <c r="B79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" t="s">
         <v>249</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" t="s">
         <v>250</v>
-      </c>
-      <c r="D79" t="s">
-        <v>250</v>
-      </c>
-      <c r="E79" t="s">
-        <v>251</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
@@ -8852,7 +8849,7 @@
         <v>102</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L79">
         <v>4500</v>
@@ -8888,10 +8885,10 @@
         <v>4</v>
       </c>
       <c r="W79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X79" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
@@ -8899,16 +8896,16 @@
         <v>21569935</v>
       </c>
       <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
         <v>254</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" t="s">
         <v>255</v>
-      </c>
-      <c r="D80" t="s">
-        <v>255</v>
-      </c>
-      <c r="E80" t="s">
-        <v>256</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
@@ -8927,7 +8924,7 @@
         <v>8</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L80">
         <v>13038813.01</v>
@@ -8966,7 +8963,7 @@
         <v>11</v>
       </c>
       <c r="X80" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -8974,16 +8971,16 @@
         <v>21564196</v>
       </c>
       <c r="B81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
         <v>257</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81" t="s">
         <v>258</v>
-      </c>
-      <c r="D81" t="s">
-        <v>258</v>
-      </c>
-      <c r="E81" t="s">
-        <v>259</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -9002,7 +8999,7 @@
         <v>16</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L81">
         <v>46797.07</v>
@@ -9041,7 +9038,7 @@
         <v>11</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
@@ -9049,16 +9046,16 @@
         <v>21456255</v>
       </c>
       <c r="B82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
         <v>260</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" t="s">
         <v>261</v>
-      </c>
-      <c r="D82" t="s">
-        <v>261</v>
-      </c>
-      <c r="E82" t="s">
-        <v>262</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
@@ -9077,7 +9074,7 @@
         <v>8</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L82">
         <v>71000</v>
@@ -9116,7 +9113,7 @@
         <v>86</v>
       </c>
       <c r="X82" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -9124,35 +9121,35 @@
         <v>21422808</v>
       </c>
       <c r="B83" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83" t="s">
         <v>527</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>527</v>
+      </c>
+      <c r="E83" t="s">
         <v>528</v>
       </c>
-      <c r="D83" t="s">
-        <v>528</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>479</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="F83" t="s">
-        <v>480</v>
-      </c>
-      <c r="G83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="I83">
         <f>VLOOKUP(H83,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -9173,10 +9170,10 @@
         <v>2</v>
       </c>
       <c r="R83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T83" t="s">
         <v>10</v>
@@ -9191,7 +9188,7 @@
         <v>11</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -9199,35 +9196,35 @@
         <v>20055251</v>
       </c>
       <c r="B84" t="s">
+        <v>531</v>
+      </c>
+      <c r="C84" t="s">
         <v>532</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>532</v>
+      </c>
+      <c r="E84" t="s">
         <v>533</v>
       </c>
-      <c r="D84" t="s">
-        <v>533</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>479</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="F84" t="s">
-        <v>480</v>
-      </c>
-      <c r="G84" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="I84">
         <f>VLOOKUP(H84,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -9248,10 +9245,10 @@
         <v>-4</v>
       </c>
       <c r="R84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T84" t="s">
         <v>81</v>
@@ -9266,7 +9263,7 @@
         <v>11</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
@@ -9274,16 +9271,16 @@
         <v>20051359</v>
       </c>
       <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
         <v>263</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
         <v>264</v>
-      </c>
-      <c r="D85" t="s">
-        <v>264</v>
-      </c>
-      <c r="E85" t="s">
-        <v>265</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
@@ -9341,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
@@ -9349,16 +9346,16 @@
         <v>20036514</v>
       </c>
       <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
         <v>266</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
         <v>267</v>
-      </c>
-      <c r="D86" t="s">
-        <v>267</v>
-      </c>
-      <c r="E86" t="s">
-        <v>268</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
@@ -9377,7 +9374,7 @@
         <v>128</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L86">
         <v>188327.15</v>
@@ -9416,7 +9413,7 @@
         <v>11</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -9424,16 +9421,16 @@
         <v>19994639</v>
       </c>
       <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
         <v>269</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" t="s">
         <v>270</v>
-      </c>
-      <c r="D87" t="s">
-        <v>270</v>
-      </c>
-      <c r="E87" t="s">
-        <v>271</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
@@ -9452,7 +9449,7 @@
         <v>16</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L87">
         <v>1099752.3799999999</v>
@@ -9491,7 +9488,7 @@
         <v>17</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
@@ -9499,16 +9496,16 @@
         <v>19877916</v>
       </c>
       <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" t="s">
         <v>273</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" t="s">
         <v>274</v>
-      </c>
-      <c r="D88" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88" t="s">
-        <v>275</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -9527,7 +9524,7 @@
         <v>22</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L88">
         <v>629176</v>
@@ -9566,7 +9563,7 @@
         <v>11</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
@@ -9574,16 +9571,16 @@
         <v>18099931</v>
       </c>
       <c r="B89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
         <v>276</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" t="s">
         <v>277</v>
-      </c>
-      <c r="D89" t="s">
-        <v>277</v>
-      </c>
-      <c r="E89" t="s">
-        <v>278</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -9602,7 +9599,7 @@
         <v>102</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L89">
         <v>291000</v>
@@ -9641,7 +9638,7 @@
         <v>91</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
@@ -9649,16 +9646,16 @@
         <v>18099367</v>
       </c>
       <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
         <v>280</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" t="s">
         <v>281</v>
-      </c>
-      <c r="D90" t="s">
-        <v>281</v>
-      </c>
-      <c r="E90" t="s">
-        <v>282</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
@@ -9677,7 +9674,7 @@
         <v>96</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L90">
         <v>3483040</v>
@@ -9716,7 +9713,7 @@
         <v>11</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
@@ -9724,16 +9721,16 @@
         <v>18080185</v>
       </c>
       <c r="B91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" t="s">
         <v>283</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" t="s">
         <v>284</v>
-      </c>
-      <c r="D91" t="s">
-        <v>284</v>
-      </c>
-      <c r="E91" t="s">
-        <v>285</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
@@ -9752,7 +9749,7 @@
         <v>70</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L91">
         <v>30000</v>
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
@@ -9799,16 +9796,16 @@
         <v>18032382</v>
       </c>
       <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
         <v>286</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" t="s">
         <v>287</v>
-      </c>
-      <c r="D92" t="s">
-        <v>287</v>
-      </c>
-      <c r="E92" t="s">
-        <v>288</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
@@ -9827,7 +9824,7 @@
         <v>8</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L92">
         <v>1944000</v>
@@ -9863,10 +9860,10 @@
         <v>4</v>
       </c>
       <c r="W92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X92" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
@@ -9874,19 +9871,19 @@
         <v>17903382</v>
       </c>
       <c r="B93" t="s">
+        <v>537</v>
+      </c>
+      <c r="C93" t="s">
         <v>538</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>538</v>
+      </c>
+      <c r="E93" t="s">
         <v>539</v>
       </c>
-      <c r="D93" t="s">
-        <v>539</v>
-      </c>
-      <c r="E93" t="s">
-        <v>540</v>
-      </c>
       <c r="F93" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -9902,7 +9899,7 @@
         <v>8</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L93">
         <v>34278768.25</v>
@@ -9923,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T93" t="s">
         <v>10</v>
@@ -9941,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
@@ -9949,16 +9946,16 @@
         <v>17896798</v>
       </c>
       <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
         <v>289</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" t="s">
         <v>290</v>
-      </c>
-      <c r="D94" t="s">
-        <v>290</v>
-      </c>
-      <c r="E94" t="s">
-        <v>291</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
@@ -9977,7 +9974,7 @@
         <v>16</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L94">
         <v>2417201.33</v>
@@ -10016,7 +10013,7 @@
         <v>11</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
@@ -10024,16 +10021,16 @@
         <v>17549232</v>
       </c>
       <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
         <v>292</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>292</v>
+      </c>
+      <c r="E95" t="s">
         <v>293</v>
-      </c>
-      <c r="D95" t="s">
-        <v>293</v>
-      </c>
-      <c r="E95" t="s">
-        <v>294</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
@@ -10052,7 +10049,7 @@
         <v>102</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L95">
         <v>110320.3</v>
@@ -10091,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
@@ -10099,16 +10096,16 @@
         <v>16751831</v>
       </c>
       <c r="B96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" t="s">
         <v>296</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" t="s">
         <v>297</v>
-      </c>
-      <c r="D96" t="s">
-        <v>297</v>
-      </c>
-      <c r="E96" t="s">
-        <v>298</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
@@ -10127,7 +10124,7 @@
         <v>8</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L96">
         <v>2733173.93</v>
@@ -10166,7 +10163,7 @@
         <v>11</v>
       </c>
       <c r="X96" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
@@ -10174,16 +10171,16 @@
         <v>16719182</v>
       </c>
       <c r="B97" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" t="s">
         <v>299</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" t="s">
         <v>300</v>
-      </c>
-      <c r="D97" t="s">
-        <v>300</v>
-      </c>
-      <c r="E97" t="s">
-        <v>301</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -10202,7 +10199,7 @@
         <v>38</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L97">
         <v>171422.1</v>
@@ -10241,7 +10238,7 @@
         <v>77</v>
       </c>
       <c r="X97" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
@@ -10249,16 +10246,16 @@
         <v>16667146</v>
       </c>
       <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
         <v>303</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" t="s">
         <v>304</v>
-      </c>
-      <c r="D98" t="s">
-        <v>304</v>
-      </c>
-      <c r="E98" t="s">
-        <v>305</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -10277,7 +10274,7 @@
         <v>102</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L98">
         <v>450000</v>
@@ -10316,7 +10313,7 @@
         <v>91</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
@@ -10324,16 +10321,16 @@
         <v>16655831</v>
       </c>
       <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
         <v>306</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" t="s">
         <v>307</v>
-      </c>
-      <c r="D99" t="s">
-        <v>307</v>
-      </c>
-      <c r="E99" t="s">
-        <v>308</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -10352,7 +10349,7 @@
         <v>128</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L99">
         <v>124500</v>
@@ -10388,10 +10385,10 @@
         <v>2</v>
       </c>
       <c r="W99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
@@ -10399,16 +10396,16 @@
         <v>16642438</v>
       </c>
       <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
         <v>310</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
         <v>311</v>
-      </c>
-      <c r="D100" t="s">
-        <v>311</v>
-      </c>
-      <c r="E100" t="s">
-        <v>312</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -10427,7 +10424,7 @@
         <v>128</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L100">
         <v>106000</v>
@@ -10466,7 +10463,7 @@
         <v>120</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
@@ -10474,16 +10471,16 @@
         <v>16448130</v>
       </c>
       <c r="B101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" t="s">
         <v>313</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" t="s">
         <v>314</v>
-      </c>
-      <c r="D101" t="s">
-        <v>314</v>
-      </c>
-      <c r="E101" t="s">
-        <v>315</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -10502,7 +10499,7 @@
         <v>16</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L101">
         <v>780200</v>
@@ -10541,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
@@ -10549,16 +10546,16 @@
         <v>16429203</v>
       </c>
       <c r="B102" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" t="s">
         <v>316</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" t="s">
         <v>317</v>
-      </c>
-      <c r="D102" t="s">
-        <v>317</v>
-      </c>
-      <c r="E102" t="s">
-        <v>318</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -10577,7 +10574,7 @@
         <v>96</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L102">
         <v>907339.53</v>
@@ -10616,7 +10613,7 @@
         <v>11</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
@@ -10624,16 +10621,16 @@
         <v>16002918</v>
       </c>
       <c r="B103" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" t="s">
         <v>319</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
         <v>320</v>
-      </c>
-      <c r="D103" t="s">
-        <v>320</v>
-      </c>
-      <c r="E103" t="s">
-        <v>321</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -10652,7 +10649,7 @@
         <v>133</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -10691,7 +10688,7 @@
         <v>11</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
@@ -10699,16 +10696,16 @@
         <v>15300817</v>
       </c>
       <c r="B104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" t="s">
         <v>322</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
         <v>323</v>
-      </c>
-      <c r="D104" t="s">
-        <v>323</v>
-      </c>
-      <c r="E104" t="s">
-        <v>324</v>
       </c>
       <c r="F104" t="s">
         <v>5</v>
@@ -10727,7 +10724,7 @@
         <v>75</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L104">
         <v>387608</v>
@@ -10766,7 +10763,7 @@
         <v>77</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
@@ -10774,16 +10771,16 @@
         <v>10806296</v>
       </c>
       <c r="B105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" t="s">
         <v>325</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>325</v>
+      </c>
+      <c r="E105" t="s">
         <v>326</v>
-      </c>
-      <c r="D105" t="s">
-        <v>326</v>
-      </c>
-      <c r="E105" t="s">
-        <v>327</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -10802,7 +10799,7 @@
         <v>38</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L105">
         <v>8313076</v>
@@ -10841,7 +10838,7 @@
         <v>11</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
@@ -10849,16 +10846,16 @@
         <v>10804834</v>
       </c>
       <c r="B106" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" t="s">
         <v>328</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>328</v>
+      </c>
+      <c r="E106" t="s">
         <v>329</v>
-      </c>
-      <c r="D106" t="s">
-        <v>329</v>
-      </c>
-      <c r="E106" t="s">
-        <v>330</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -10877,7 +10874,7 @@
         <v>8</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -10916,7 +10913,7 @@
         <v>77</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
@@ -10924,16 +10921,16 @@
         <v>10691398</v>
       </c>
       <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
         <v>331</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" t="s">
         <v>332</v>
-      </c>
-      <c r="D107" t="s">
-        <v>332</v>
-      </c>
-      <c r="E107" t="s">
-        <v>333</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -10952,7 +10949,7 @@
         <v>96</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L107">
         <v>1558253</v>
@@ -10991,7 +10988,7 @@
         <v>11</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
@@ -10999,16 +10996,16 @@
         <v>10491661</v>
       </c>
       <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
         <v>334</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" t="s">
         <v>335</v>
-      </c>
-      <c r="D108" t="s">
-        <v>335</v>
-      </c>
-      <c r="E108" t="s">
-        <v>336</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -11027,7 +11024,7 @@
         <v>8</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L108">
         <v>3758062.04</v>
@@ -11066,7 +11063,7 @@
         <v>11</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
@@ -11074,16 +11071,16 @@
         <v>10485497</v>
       </c>
       <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" t="s">
         <v>337</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>337</v>
+      </c>
+      <c r="E109" t="s">
         <v>338</v>
-      </c>
-      <c r="D109" t="s">
-        <v>338</v>
-      </c>
-      <c r="E109" t="s">
-        <v>339</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11102,7 +11099,7 @@
         <v>70</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L109">
         <v>25000</v>
@@ -11141,7 +11138,7 @@
         <v>77</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
@@ -11149,16 +11146,16 @@
         <v>10280036</v>
       </c>
       <c r="B110" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
         <v>340</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>340</v>
+      </c>
+      <c r="E110" t="s">
         <v>341</v>
-      </c>
-      <c r="D110" t="s">
-        <v>341</v>
-      </c>
-      <c r="E110" t="s">
-        <v>342</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -11177,7 +11174,7 @@
         <v>108</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L110">
         <v>4652000</v>
@@ -11216,7 +11213,7 @@
         <v>77</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
@@ -11224,16 +11221,16 @@
         <v>10213424</v>
       </c>
       <c r="B111" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" t="s">
         <v>343</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" t="s">
         <v>344</v>
-      </c>
-      <c r="D111" t="s">
-        <v>344</v>
-      </c>
-      <c r="E111" t="s">
-        <v>345</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11252,7 +11249,7 @@
         <v>153</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L111">
         <v>514758</v>
@@ -11291,7 +11288,7 @@
         <v>11</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
@@ -11299,16 +11296,16 @@
         <v>10129700</v>
       </c>
       <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
         <v>346</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" t="s">
         <v>347</v>
-      </c>
-      <c r="D112" t="s">
-        <v>347</v>
-      </c>
-      <c r="E112" t="s">
-        <v>348</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -11327,7 +11324,7 @@
         <v>22</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -11366,7 +11363,7 @@
         <v>11</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
@@ -11374,16 +11371,16 @@
         <v>9980339</v>
       </c>
       <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
         <v>349</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" t="s">
         <v>350</v>
-      </c>
-      <c r="D113" t="s">
-        <v>350</v>
-      </c>
-      <c r="E113" t="s">
-        <v>351</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
@@ -11402,7 +11399,7 @@
         <v>16</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L113">
         <v>53000</v>
@@ -11441,7 +11438,7 @@
         <v>11</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
@@ -11449,16 +11446,16 @@
         <v>9575873</v>
       </c>
       <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="s">
         <v>352</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" t="s">
         <v>353</v>
-      </c>
-      <c r="D114" t="s">
-        <v>353</v>
-      </c>
-      <c r="E114" t="s">
-        <v>354</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -11477,7 +11474,7 @@
         <v>70</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -11513,10 +11510,10 @@
         <v>5</v>
       </c>
       <c r="W114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
@@ -11524,16 +11521,16 @@
         <v>9303945</v>
       </c>
       <c r="B115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" t="s">
         <v>356</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E115" t="s">
         <v>357</v>
-      </c>
-      <c r="D115" t="s">
-        <v>357</v>
-      </c>
-      <c r="E115" t="s">
-        <v>358</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -11552,7 +11549,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L115">
         <v>450000</v>
@@ -11591,7 +11588,7 @@
         <v>77</v>
       </c>
       <c r="X115" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
@@ -11599,16 +11596,16 @@
         <v>9303898</v>
       </c>
       <c r="B116" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" t="s">
         <v>359</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" t="s">
         <v>360</v>
-      </c>
-      <c r="D116" t="s">
-        <v>360</v>
-      </c>
-      <c r="E116" t="s">
-        <v>361</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -11627,7 +11624,7 @@
         <v>108</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L116">
         <v>87000</v>
@@ -11666,7 +11663,7 @@
         <v>17</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
@@ -11674,16 +11671,16 @@
         <v>8911520</v>
       </c>
       <c r="B117" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" t="s">
         <v>362</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" t="s">
         <v>363</v>
-      </c>
-      <c r="D117" t="s">
-        <v>363</v>
-      </c>
-      <c r="E117" t="s">
-        <v>364</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -11702,7 +11699,7 @@
         <v>16</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L117">
         <v>35800</v>
@@ -11741,7 +11738,7 @@
         <v>91</v>
       </c>
       <c r="X117" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
@@ -11749,16 +11746,16 @@
         <v>8271323</v>
       </c>
       <c r="B118" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" t="s">
         <v>366</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>366</v>
+      </c>
+      <c r="E118" t="s">
         <v>367</v>
-      </c>
-      <c r="D118" t="s">
-        <v>367</v>
-      </c>
-      <c r="E118" t="s">
-        <v>368</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -11777,7 +11774,7 @@
         <v>153</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L118">
         <v>812001.61</v>
@@ -11816,7 +11813,7 @@
         <v>17</v>
       </c>
       <c r="X118" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
@@ -11824,16 +11821,16 @@
         <v>8236035</v>
       </c>
       <c r="B119" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" t="s">
         <v>369</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>369</v>
+      </c>
+      <c r="E119" t="s">
         <v>370</v>
-      </c>
-      <c r="D119" t="s">
-        <v>370</v>
-      </c>
-      <c r="E119" t="s">
-        <v>371</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -11852,7 +11849,7 @@
         <v>16</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L119">
         <v>3892296</v>
@@ -11891,7 +11888,7 @@
         <v>11</v>
       </c>
       <c r="X119" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
@@ -11899,16 +11896,16 @@
         <v>8232920</v>
       </c>
       <c r="B120" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" t="s">
         <v>372</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>372</v>
+      </c>
+      <c r="E120" t="s">
         <v>373</v>
-      </c>
-      <c r="D120" t="s">
-        <v>373</v>
-      </c>
-      <c r="E120" t="s">
-        <v>374</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -11927,7 +11924,7 @@
         <v>16</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L120">
         <v>300000</v>
@@ -11966,7 +11963,7 @@
         <v>11</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
@@ -11974,16 +11971,16 @@
         <v>8185259</v>
       </c>
       <c r="B121" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" t="s">
         <v>375</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>375</v>
+      </c>
+      <c r="E121" t="s">
         <v>376</v>
-      </c>
-      <c r="D121" t="s">
-        <v>376</v>
-      </c>
-      <c r="E121" t="s">
-        <v>377</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -12002,7 +11999,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L121">
         <v>347329.74</v>
@@ -12041,7 +12038,7 @@
         <v>11</v>
       </c>
       <c r="X121" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
@@ -12049,35 +12046,35 @@
         <v>8119443</v>
       </c>
       <c r="B122" t="s">
+        <v>544</v>
+      </c>
+      <c r="C122" t="s">
         <v>545</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>545</v>
+      </c>
+      <c r="E122" t="s">
         <v>546</v>
       </c>
-      <c r="D122" t="s">
-        <v>546</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>479</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="F122" t="s">
-        <v>480</v>
-      </c>
-      <c r="G122" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="I122">
         <f>VLOOKUP(H122,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>26</v>
       </c>
       <c r="J122" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -12098,10 +12095,10 @@
         <v>-3</v>
       </c>
       <c r="R122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T122" t="s">
         <v>81</v>
@@ -12116,7 +12113,7 @@
         <v>86</v>
       </c>
       <c r="X122" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
@@ -12124,16 +12121,16 @@
         <v>7874562</v>
       </c>
       <c r="B123" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" t="s">
         <v>378</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>378</v>
+      </c>
+      <c r="E123" t="s">
         <v>379</v>
-      </c>
-      <c r="D123" t="s">
-        <v>379</v>
-      </c>
-      <c r="E123" t="s">
-        <v>380</v>
       </c>
       <c r="F123" t="s">
         <v>5</v>
@@ -12152,7 +12149,7 @@
         <v>75</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L123">
         <v>557000</v>
@@ -12191,7 +12188,7 @@
         <v>91</v>
       </c>
       <c r="X123" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
@@ -12199,16 +12196,16 @@
         <v>7852432</v>
       </c>
       <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
         <v>381</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>381</v>
+      </c>
+      <c r="E124" t="s">
         <v>382</v>
-      </c>
-      <c r="D124" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" t="s">
-        <v>383</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
@@ -12227,7 +12224,7 @@
         <v>38</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L124">
         <v>1959300</v>
@@ -12266,7 +12263,7 @@
         <v>11</v>
       </c>
       <c r="X124" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
@@ -12274,16 +12271,16 @@
         <v>7831436</v>
       </c>
       <c r="B125" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" t="s">
         <v>384</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>384</v>
+      </c>
+      <c r="E125" t="s">
         <v>385</v>
-      </c>
-      <c r="D125" t="s">
-        <v>385</v>
-      </c>
-      <c r="E125" t="s">
-        <v>386</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12302,7 +12299,7 @@
         <v>16</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L125">
         <v>400992.3</v>
@@ -12341,7 +12338,7 @@
         <v>77</v>
       </c>
       <c r="X125" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
@@ -12349,16 +12346,16 @@
         <v>7737110</v>
       </c>
       <c r="B126" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" t="s">
         <v>387</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E126" t="s">
         <v>388</v>
-      </c>
-      <c r="D126" t="s">
-        <v>388</v>
-      </c>
-      <c r="E126" t="s">
-        <v>389</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12416,7 +12413,7 @@
         <v>11</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
@@ -12424,35 +12421,35 @@
         <v>7711761</v>
       </c>
       <c r="B127" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" t="s">
         <v>477</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>477</v>
+      </c>
+      <c r="E127" t="s">
         <v>478</v>
       </c>
-      <c r="D127" t="s">
-        <v>478</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>479</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="G127" t="s">
-        <v>6</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="I127">
         <f>VLOOKUP(H127,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>16</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L127">
         <v>3415880.46999999</v>
@@ -12473,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="R127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T127" t="s">
         <v>10</v>
@@ -12491,7 +12488,7 @@
         <v>11</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
@@ -12499,16 +12496,16 @@
         <v>7704730</v>
       </c>
       <c r="B128" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" t="s">
         <v>390</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>390</v>
+      </c>
+      <c r="E128" t="s">
         <v>391</v>
-      </c>
-      <c r="D128" t="s">
-        <v>391</v>
-      </c>
-      <c r="E128" t="s">
-        <v>392</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12527,7 +12524,7 @@
         <v>16</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -12566,7 +12563,7 @@
         <v>11</v>
       </c>
       <c r="X128" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
@@ -12574,16 +12571,16 @@
         <v>7638265</v>
       </c>
       <c r="B129" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" t="s">
         <v>393</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>393</v>
+      </c>
+      <c r="E129" t="s">
         <v>394</v>
-      </c>
-      <c r="D129" t="s">
-        <v>394</v>
-      </c>
-      <c r="E129" t="s">
-        <v>395</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
@@ -12602,7 +12599,7 @@
         <v>133</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -12641,7 +12638,7 @@
         <v>91</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
@@ -12649,16 +12646,16 @@
         <v>7246887</v>
       </c>
       <c r="B130" t="s">
+        <v>396</v>
+      </c>
+      <c r="C130" t="s">
         <v>397</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>397</v>
+      </c>
+      <c r="E130" t="s">
         <v>398</v>
-      </c>
-      <c r="D130" t="s">
-        <v>398</v>
-      </c>
-      <c r="E130" t="s">
-        <v>399</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
@@ -12677,7 +12674,7 @@
         <v>70</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L130">
         <v>19743491.079999998</v>
@@ -12716,7 +12713,7 @@
         <v>11</v>
       </c>
       <c r="X130" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
@@ -12724,16 +12721,16 @@
         <v>7026029</v>
       </c>
       <c r="B131" t="s">
+        <v>399</v>
+      </c>
+      <c r="C131" t="s">
         <v>400</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>400</v>
+      </c>
+      <c r="E131" t="s">
         <v>401</v>
-      </c>
-      <c r="D131" t="s">
-        <v>401</v>
-      </c>
-      <c r="E131" t="s">
-        <v>402</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
@@ -12752,7 +12749,7 @@
         <v>38</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L131">
         <v>776860</v>
@@ -12791,7 +12788,7 @@
         <v>17</v>
       </c>
       <c r="X131" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
@@ -12799,35 +12796,35 @@
         <v>6825885</v>
       </c>
       <c r="B132" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" t="s">
         <v>499</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>499</v>
+      </c>
+      <c r="E132" t="s">
         <v>500</v>
       </c>
-      <c r="D132" t="s">
-        <v>500</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>479</v>
+      </c>
+      <c r="G132" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="F132" t="s">
-        <v>480</v>
-      </c>
-      <c r="G132" t="s">
-        <v>6</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="I132">
         <f>VLOOKUP(H132,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L132">
         <v>1727382.6</v>
@@ -12848,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="R132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T132" t="s">
         <v>10</v>
@@ -12866,7 +12863,7 @@
         <v>11</v>
       </c>
       <c r="X132" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
@@ -12874,16 +12871,16 @@
         <v>6783615</v>
       </c>
       <c r="B133" t="s">
+        <v>402</v>
+      </c>
+      <c r="C133" t="s">
         <v>403</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>403</v>
+      </c>
+      <c r="E133" t="s">
         <v>404</v>
-      </c>
-      <c r="D133" t="s">
-        <v>404</v>
-      </c>
-      <c r="E133" t="s">
-        <v>405</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
@@ -12902,7 +12899,7 @@
         <v>96</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L133">
         <v>375000</v>
@@ -12941,7 +12938,7 @@
         <v>77</v>
       </c>
       <c r="X133" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
@@ -12949,16 +12946,16 @@
         <v>6522159</v>
       </c>
       <c r="B134" t="s">
+        <v>406</v>
+      </c>
+      <c r="C134" t="s">
         <v>407</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>407</v>
+      </c>
+      <c r="E134" t="s">
         <v>408</v>
-      </c>
-      <c r="D134" t="s">
-        <v>408</v>
-      </c>
-      <c r="E134" t="s">
-        <v>409</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -13016,7 +13013,7 @@
         <v>11</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
@@ -13024,16 +13021,16 @@
         <v>6354697</v>
       </c>
       <c r="B135" t="s">
+        <v>409</v>
+      </c>
+      <c r="C135" t="s">
         <v>410</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>410</v>
+      </c>
+      <c r="E135" t="s">
         <v>411</v>
-      </c>
-      <c r="D135" t="s">
-        <v>411</v>
-      </c>
-      <c r="E135" t="s">
-        <v>412</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
@@ -13052,7 +13049,7 @@
         <v>128</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L135">
         <v>3251062.88</v>
@@ -13091,7 +13088,7 @@
         <v>11</v>
       </c>
       <c r="X135" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
@@ -13099,19 +13096,19 @@
         <v>6256217</v>
       </c>
       <c r="B136" t="s">
+        <v>590</v>
+      </c>
+      <c r="C136" t="s">
         <v>591</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>591</v>
+      </c>
+      <c r="E136" t="s">
         <v>592</v>
       </c>
-      <c r="D136" t="s">
-        <v>592</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>593</v>
-      </c>
-      <c r="F136" t="s">
-        <v>594</v>
       </c>
       <c r="G136" t="s">
         <v>6</v>
@@ -13127,7 +13124,7 @@
         <v>128</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L136">
         <v>408456.06</v>
@@ -13148,10 +13145,10 @@
         <v>-4</v>
       </c>
       <c r="R136" t="s">
+        <v>594</v>
+      </c>
+      <c r="S136" t="s">
         <v>595</v>
-      </c>
-      <c r="S136" t="s">
-        <v>596</v>
       </c>
       <c r="T136" t="s">
         <v>10</v>
@@ -13166,7 +13163,7 @@
         <v>11</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
@@ -13174,16 +13171,16 @@
         <v>6049853</v>
       </c>
       <c r="B137" t="s">
+        <v>412</v>
+      </c>
+      <c r="C137" t="s">
         <v>413</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>413</v>
+      </c>
+      <c r="E137" t="s">
         <v>414</v>
-      </c>
-      <c r="D137" t="s">
-        <v>414</v>
-      </c>
-      <c r="E137" t="s">
-        <v>415</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
@@ -13202,7 +13199,7 @@
         <v>38</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L137">
         <v>637692.4</v>
@@ -13241,7 +13238,7 @@
         <v>11</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
@@ -13249,16 +13246,16 @@
         <v>5618705</v>
       </c>
       <c r="B138" t="s">
+        <v>415</v>
+      </c>
+      <c r="C138" t="s">
         <v>416</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>416</v>
+      </c>
+      <c r="E138" t="s">
         <v>417</v>
-      </c>
-      <c r="D138" t="s">
-        <v>417</v>
-      </c>
-      <c r="E138" t="s">
-        <v>418</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13277,7 +13274,7 @@
         <v>8</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L138">
         <v>260867.91</v>
@@ -13316,7 +13313,7 @@
         <v>17</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
@@ -13324,16 +13321,16 @@
         <v>5374449</v>
       </c>
       <c r="B139" t="s">
+        <v>419</v>
+      </c>
+      <c r="C139" t="s">
         <v>420</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>420</v>
+      </c>
+      <c r="E139" t="s">
         <v>421</v>
-      </c>
-      <c r="D139" t="s">
-        <v>421</v>
-      </c>
-      <c r="E139" t="s">
-        <v>422</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
@@ -13391,7 +13388,7 @@
         <v>91</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
@@ -13399,16 +13396,16 @@
         <v>5070188</v>
       </c>
       <c r="B140" t="s">
+        <v>422</v>
+      </c>
+      <c r="C140" t="s">
         <v>423</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>423</v>
+      </c>
+      <c r="E140" t="s">
         <v>424</v>
-      </c>
-      <c r="D140" t="s">
-        <v>424</v>
-      </c>
-      <c r="E140" t="s">
-        <v>425</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
@@ -13427,7 +13424,7 @@
         <v>8</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L140">
         <v>1030000</v>
@@ -13466,7 +13463,7 @@
         <v>86</v>
       </c>
       <c r="X140" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
@@ -13474,16 +13471,16 @@
         <v>4647085</v>
       </c>
       <c r="B141" t="s">
+        <v>425</v>
+      </c>
+      <c r="C141" t="s">
         <v>426</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>426</v>
+      </c>
+      <c r="E141" t="s">
         <v>427</v>
-      </c>
-      <c r="D141" t="s">
-        <v>427</v>
-      </c>
-      <c r="E141" t="s">
-        <v>428</v>
       </c>
       <c r="F141" t="s">
         <v>5</v>
@@ -13502,7 +13499,7 @@
         <v>133</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L141">
         <v>241769.63</v>
@@ -13541,7 +13538,7 @@
         <v>11</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
@@ -13549,16 +13546,16 @@
         <v>4413969</v>
       </c>
       <c r="B142" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" t="s">
         <v>429</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>429</v>
+      </c>
+      <c r="E142" t="s">
         <v>430</v>
-      </c>
-      <c r="D142" t="s">
-        <v>430</v>
-      </c>
-      <c r="E142" t="s">
-        <v>431</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
@@ -13577,7 +13574,7 @@
         <v>133</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L142">
         <v>45000</v>
@@ -13616,7 +13613,7 @@
         <v>11</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
@@ -13624,16 +13621,16 @@
         <v>3243625</v>
       </c>
       <c r="B143" t="s">
+        <v>431</v>
+      </c>
+      <c r="C143" t="s">
         <v>432</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" t="s">
         <v>433</v>
-      </c>
-      <c r="D143" t="s">
-        <v>433</v>
-      </c>
-      <c r="E143" t="s">
-        <v>434</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -13691,7 +13688,7 @@
         <v>11</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
@@ -13699,16 +13696,16 @@
         <v>2743658</v>
       </c>
       <c r="B144" t="s">
+        <v>434</v>
+      </c>
+      <c r="C144" t="s">
         <v>435</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>435</v>
+      </c>
+      <c r="E144" t="s">
         <v>436</v>
-      </c>
-      <c r="D144" t="s">
-        <v>436</v>
-      </c>
-      <c r="E144" t="s">
-        <v>437</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
@@ -13727,7 +13724,7 @@
         <v>75</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L144">
         <v>1789000</v>
@@ -13766,7 +13763,7 @@
         <v>86</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
@@ -13774,16 +13771,16 @@
         <v>2726999</v>
       </c>
       <c r="B145" t="s">
+        <v>437</v>
+      </c>
+      <c r="C145" t="s">
         <v>438</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>438</v>
+      </c>
+      <c r="E145" t="s">
         <v>439</v>
-      </c>
-      <c r="D145" t="s">
-        <v>439</v>
-      </c>
-      <c r="E145" t="s">
-        <v>440</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13802,7 +13799,7 @@
         <v>16</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L145">
         <v>1111000</v>
@@ -13841,7 +13838,7 @@
         <v>11</v>
       </c>
       <c r="X145" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
@@ -13849,16 +13846,16 @@
         <v>2417724</v>
       </c>
       <c r="B146" t="s">
+        <v>440</v>
+      </c>
+      <c r="C146" t="s">
         <v>441</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>441</v>
+      </c>
+      <c r="E146" t="s">
         <v>442</v>
-      </c>
-      <c r="D146" t="s">
-        <v>442</v>
-      </c>
-      <c r="E146" t="s">
-        <v>443</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
@@ -13877,7 +13874,7 @@
         <v>70</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L146">
         <v>99000</v>
@@ -13913,10 +13910,10 @@
         <v>2</v>
       </c>
       <c r="W146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
@@ -13924,16 +13921,16 @@
         <v>1888173</v>
       </c>
       <c r="B147" t="s">
+        <v>444</v>
+      </c>
+      <c r="C147" t="s">
         <v>445</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>445</v>
+      </c>
+      <c r="E147" t="s">
         <v>446</v>
-      </c>
-      <c r="D147" t="s">
-        <v>446</v>
-      </c>
-      <c r="E147" t="s">
-        <v>447</v>
       </c>
       <c r="F147" t="s">
         <v>5</v>
@@ -13952,7 +13949,7 @@
         <v>70</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L147">
         <v>52818</v>
@@ -13988,10 +13985,10 @@
         <v>7</v>
       </c>
       <c r="W147" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X147" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
@@ -13999,16 +13996,16 @@
         <v>1327194</v>
       </c>
       <c r="B148" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" t="s">
         <v>450</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>450</v>
+      </c>
+      <c r="E148" t="s">
         <v>451</v>
-      </c>
-      <c r="D148" t="s">
-        <v>451</v>
-      </c>
-      <c r="E148" t="s">
-        <v>452</v>
       </c>
       <c r="F148" t="s">
         <v>5</v>
@@ -14017,17 +14014,17 @@
         <v>6</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I148">
         <f>VLOOKUP(H148,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L148">
         <v>287717</v>
@@ -14066,7 +14063,7 @@
         <v>91</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
@@ -14074,16 +14071,16 @@
         <v>1311614</v>
       </c>
       <c r="B149" t="s">
+        <v>453</v>
+      </c>
+      <c r="C149" t="s">
         <v>454</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>454</v>
+      </c>
+      <c r="E149" t="s">
         <v>455</v>
-      </c>
-      <c r="D149" t="s">
-        <v>455</v>
-      </c>
-      <c r="E149" t="s">
-        <v>456</v>
       </c>
       <c r="F149" t="s">
         <v>5</v>
@@ -14102,7 +14099,7 @@
         <v>128</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L149">
         <v>123307.98</v>
@@ -14141,7 +14138,7 @@
         <v>86</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
@@ -14149,35 +14146,35 @@
         <v>1234692</v>
       </c>
       <c r="B150" t="s">
+        <v>506</v>
+      </c>
+      <c r="C150" t="s">
         <v>507</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>507</v>
+      </c>
+      <c r="E150" t="s">
         <v>508</v>
       </c>
-      <c r="D150" t="s">
-        <v>508</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
+        <v>479</v>
+      </c>
+      <c r="G150" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="F150" t="s">
-        <v>480</v>
-      </c>
-      <c r="G150" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="I150">
         <f>VLOOKUP(H150,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L150">
         <v>15000</v>
@@ -14198,10 +14195,10 @@
         <v>-5</v>
       </c>
       <c r="R150" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S150" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T150" t="s">
         <v>10</v>
@@ -14216,7 +14213,7 @@
         <v>11</v>
       </c>
       <c r="X150" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
@@ -14224,16 +14221,16 @@
         <v>1157063</v>
       </c>
       <c r="B151" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" t="s">
         <v>457</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>457</v>
+      </c>
+      <c r="E151" t="s">
         <v>458</v>
-      </c>
-      <c r="D151" t="s">
-        <v>458</v>
-      </c>
-      <c r="E151" t="s">
-        <v>459</v>
       </c>
       <c r="F151" t="s">
         <v>5</v>
@@ -14252,7 +14249,7 @@
         <v>27</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L151">
         <v>9500</v>
@@ -14291,7 +14288,7 @@
         <v>91</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
@@ -14299,16 +14296,16 @@
         <v>1088231</v>
       </c>
       <c r="B152" t="s">
+        <v>460</v>
+      </c>
+      <c r="C152" t="s">
         <v>461</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>461</v>
+      </c>
+      <c r="E152" t="s">
         <v>462</v>
-      </c>
-      <c r="D152" t="s">
-        <v>462</v>
-      </c>
-      <c r="E152" t="s">
-        <v>463</v>
       </c>
       <c r="F152" t="s">
         <v>5</v>
@@ -14317,17 +14314,17 @@
         <v>6</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I152">
         <f>VLOOKUP(H152,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L152">
         <v>208143.02</v>
@@ -14363,10 +14360,10 @@
         <v>4</v>
       </c>
       <c r="W152" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X152" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
@@ -14374,19 +14371,19 @@
         <v>1077388</v>
       </c>
       <c r="B153" t="s">
+        <v>574</v>
+      </c>
+      <c r="C153" t="s">
         <v>575</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>575</v>
+      </c>
+      <c r="E153" t="s">
         <v>576</v>
       </c>
-      <c r="D153" t="s">
-        <v>576</v>
-      </c>
-      <c r="E153" t="s">
-        <v>577</v>
-      </c>
       <c r="F153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G153" t="s">
         <v>6</v>
@@ -14402,7 +14399,7 @@
         <v>75</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L153">
         <v>196098.85</v>
@@ -14423,10 +14420,10 @@
         <v>-3</v>
       </c>
       <c r="R153" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S153" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T153" t="s">
         <v>10</v>
@@ -14441,7 +14438,7 @@
         <v>11</v>
       </c>
       <c r="X153" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
@@ -14449,16 +14446,16 @@
         <v>434972</v>
       </c>
       <c r="B154" t="s">
+        <v>464</v>
+      </c>
+      <c r="C154" t="s">
         <v>465</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>465</v>
+      </c>
+      <c r="E154" t="s">
         <v>466</v>
-      </c>
-      <c r="D154" t="s">
-        <v>466</v>
-      </c>
-      <c r="E154" t="s">
-        <v>467</v>
       </c>
       <c r="F154" t="s">
         <v>5</v>
@@ -14477,7 +14474,7 @@
         <v>128</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L154">
         <v>41250</v>
@@ -14516,7 +14513,7 @@
         <v>11</v>
       </c>
       <c r="X154" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
@@ -14524,35 +14521,35 @@
         <v>428265</v>
       </c>
       <c r="B155" t="s">
+        <v>577</v>
+      </c>
+      <c r="C155" t="s">
         <v>578</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>578</v>
+      </c>
+      <c r="E155" t="s">
         <v>579</v>
       </c>
-      <c r="D155" t="s">
-        <v>579</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
+        <v>479</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="F155" t="s">
-        <v>480</v>
-      </c>
-      <c r="G155" t="s">
-        <v>6</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="I155">
         <f>VLOOKUP(H155,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>29</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L155">
         <v>84011.45</v>
@@ -14573,10 +14570,10 @@
         <v>-7</v>
       </c>
       <c r="R155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T155" t="s">
         <v>10</v>
@@ -14591,7 +14588,7 @@
         <v>11</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
@@ -14599,19 +14596,19 @@
         <v>361856</v>
       </c>
       <c r="B156" t="s">
+        <v>582</v>
+      </c>
+      <c r="C156" t="s">
         <v>583</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>583</v>
+      </c>
+      <c r="E156" t="s">
         <v>584</v>
       </c>
-      <c r="D156" t="s">
-        <v>584</v>
-      </c>
-      <c r="E156" t="s">
-        <v>585</v>
-      </c>
       <c r="F156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -14627,7 +14624,7 @@
         <v>8</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L156">
         <v>900</v>
@@ -14648,10 +14645,10 @@
         <v>-6</v>
       </c>
       <c r="R156" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S156" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T156" t="s">
         <v>81</v>
@@ -14666,7 +14663,7 @@
         <v>11</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
@@ -14674,35 +14671,35 @@
         <v>188009</v>
       </c>
       <c r="B157" t="s">
+        <v>585</v>
+      </c>
+      <c r="C157" t="s">
         <v>586</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>586</v>
+      </c>
+      <c r="E157" t="s">
         <v>587</v>
       </c>
-      <c r="D157" t="s">
-        <v>587</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
+        <v>479</v>
+      </c>
+      <c r="G157" t="s">
+        <v>6</v>
+      </c>
+      <c r="H157" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="F157" t="s">
-        <v>480</v>
-      </c>
-      <c r="G157" t="s">
-        <v>6</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="I157">
         <f>VLOOKUP(H157,Hoja_2!$A$1:$B$30,2,FALSE)</f>
         <v>30</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L157">
         <v>827701.98</v>
@@ -14723,10 +14720,10 @@
         <v>8</v>
       </c>
       <c r="R157" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S157" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T157" t="s">
         <v>10</v>
@@ -14741,7 +14738,7 @@
         <v>11</v>
       </c>
       <c r="X157" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -14759,10 +14756,13 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -14878,7 +14878,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -14894,7 +14894,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>880</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -14934,7 +14934,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -14950,7 +14950,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -14958,7 +14958,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -14966,7 +14966,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -14998,7 +14998,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B30">
         <v>30</v>

--- a/data/datos_patrimonio_final.xlsx
+++ b/data/datos_patrimonio_final.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Hoja_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja_1!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja_1!$A$1:$Y$157</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="883">
   <si>
     <t>status</t>
   </si>
@@ -2666,6 +2666,12 @@
   </si>
   <si>
     <t>Movimiento Regional AGUA</t>
+  </si>
+  <si>
+    <t>heritageForYear_2025</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2937,10 +2943,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X157"/>
+  <dimension ref="A1:Y157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="L139" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2958,16 +2964,17 @@
     <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="99.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3017,31 +3024,34 @@
         <v>609</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>80143959</v>
       </c>
@@ -3091,12 +3101,12 @@
       <c r="P2">
         <v>296470.59999999998</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R2" s="2">
         <v>-3</v>
       </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
       <c r="S2" t="s">
         <v>10</v>
       </c>
@@ -3106,17 +3116,20 @@
       <c r="U2" t="s">
         <v>10</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>76030152</v>
       </c>
@@ -3166,12 +3179,12 @@
       <c r="P3">
         <v>216749.52</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R3" s="2">
         <v>-2</v>
       </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
       <c r="S3" t="s">
         <v>10</v>
       </c>
@@ -3181,17 +3194,20 @@
       <c r="U3" t="s">
         <v>10</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>72200895</v>
       </c>
@@ -3241,12 +3257,12 @@
       <c r="P4">
         <v>431013.99</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R4" s="2">
         <v>-7</v>
       </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
       <c r="S4" t="s">
         <v>10</v>
       </c>
@@ -3256,17 +3272,20 @@
       <c r="U4" t="s">
         <v>10</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>70546213</v>
       </c>
@@ -3316,12 +3335,12 @@
       <c r="P5">
         <v>234813.8</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
       <c r="S5" t="s">
         <v>10</v>
       </c>
@@ -3331,17 +3350,20 @@
       <c r="U5" t="s">
         <v>10</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70094373</v>
       </c>
@@ -3391,12 +3413,12 @@
       <c r="P6">
         <v>2667131.11</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R6" s="2">
         <v>-3</v>
       </c>
-      <c r="R6" t="s">
-        <v>10</v>
-      </c>
       <c r="S6" t="s">
         <v>10</v>
       </c>
@@ -3406,17 +3428,20 @@
       <c r="U6" t="s">
         <v>10</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>48507818</v>
       </c>
@@ -3466,32 +3491,35 @@
       <c r="P7">
         <v>1390089.7</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
+        <v>1357483.1099999901</v>
+      </c>
+      <c r="R7" s="2">
         <v>5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>482</v>
       </c>
       <c r="S7" t="s">
         <v>482</v>
       </c>
       <c r="T7" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U7" t="s">
         <v>10</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>48164963</v>
       </c>
@@ -3541,32 +3569,35 @@
       <c r="P8">
         <v>61900.2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R8" s="2">
         <v>4</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
       </c>
       <c r="S8" t="s">
         <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
         <v>10</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>47785498</v>
       </c>
@@ -3616,12 +3647,12 @@
       <c r="P9">
         <v>713647.45</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" t="s">
-        <v>10</v>
-      </c>
       <c r="S9" t="s">
         <v>10</v>
       </c>
@@ -3631,17 +3662,20 @@
       <c r="U9" t="s">
         <v>10</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="V9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>46847115</v>
       </c>
@@ -3691,12 +3725,12 @@
       <c r="P10">
         <v>1472365.71</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R10" s="2">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
-        <v>10</v>
-      </c>
       <c r="S10" t="s">
         <v>10</v>
       </c>
@@ -3706,17 +3740,20 @@
       <c r="U10" t="s">
         <v>10</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10">
         <v>1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46646988</v>
       </c>
@@ -3766,32 +3803,35 @@
       <c r="P11">
         <v>41363.089999999997</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>482</v>
+      <c r="Q11" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>482</v>
       </c>
       <c r="T11" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U11" t="s">
         <v>10</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="V11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>11</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>46517805</v>
       </c>
@@ -3841,12 +3881,12 @@
       <c r="P12">
         <v>360439.3</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R12" s="2">
         <v>2</v>
       </c>
-      <c r="R12" t="s">
-        <v>10</v>
-      </c>
       <c r="S12" t="s">
         <v>10</v>
       </c>
@@ -3856,17 +3896,20 @@
       <c r="U12" t="s">
         <v>10</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>11</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>46130369</v>
       </c>
@@ -3916,12 +3959,12 @@
       <c r="P13">
         <v>220758.5</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R13" s="2">
         <v>-1</v>
       </c>
-      <c r="R13" t="s">
-        <v>10</v>
-      </c>
       <c r="S13" t="s">
         <v>10</v>
       </c>
@@ -3931,17 +3974,20 @@
       <c r="U13" t="s">
         <v>10</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="V13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>11</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>45591954</v>
       </c>
@@ -3991,12 +4037,12 @@
       <c r="P14">
         <v>1070038.1100000001</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R14" s="2">
         <v>-9</v>
       </c>
-      <c r="R14" t="s">
-        <v>10</v>
-      </c>
       <c r="S14" t="s">
         <v>10</v>
       </c>
@@ -4006,17 +4052,20 @@
       <c r="U14" t="s">
         <v>10</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="V14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>45382589</v>
       </c>
@@ -4066,12 +4115,12 @@
       <c r="P15">
         <v>451123.61</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R15" s="2">
         <v>-3</v>
       </c>
-      <c r="R15" t="s">
-        <v>10</v>
-      </c>
       <c r="S15" t="s">
         <v>10</v>
       </c>
@@ -4081,17 +4130,20 @@
       <c r="U15" t="s">
         <v>10</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="V15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>45209282</v>
       </c>
@@ -4141,12 +4193,12 @@
       <c r="P16">
         <v>214678.09</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R16" s="2">
         <v>-3</v>
       </c>
-      <c r="R16" t="s">
-        <v>10</v>
-      </c>
       <c r="S16" t="s">
         <v>10</v>
       </c>
@@ -4156,17 +4208,20 @@
       <c r="U16" t="s">
         <v>10</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="V16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
         <v>11</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>44993239</v>
       </c>
@@ -4216,32 +4271,35 @@
       <c r="P17">
         <v>369250</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
+        <v>369250</v>
+      </c>
+      <c r="R17" s="2">
         <v>3</v>
-      </c>
-      <c r="R17" t="s">
-        <v>482</v>
       </c>
       <c r="S17" t="s">
         <v>482</v>
       </c>
       <c r="T17" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U17" t="s">
         <v>10</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="V17" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>11</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>44886100</v>
       </c>
@@ -4291,11 +4349,11 @@
       <c r="P18">
         <v>958308.88999999897</v>
       </c>
-      <c r="Q18" s="2">
-        <v>6</v>
-      </c>
-      <c r="R18" t="s">
-        <v>10</v>
+      <c r="Q18" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R18" s="2">
+        <v>6</v>
       </c>
       <c r="S18" t="s">
         <v>10</v>
@@ -4306,17 +4364,20 @@
       <c r="U18" t="s">
         <v>10</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="V18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>11</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>44807108</v>
       </c>
@@ -4366,12 +4427,12 @@
       <c r="P19">
         <v>50845.71</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R19" s="2">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
-        <v>10</v>
-      </c>
       <c r="S19" t="s">
         <v>10</v>
       </c>
@@ -4381,17 +4442,20 @@
       <c r="U19" t="s">
         <v>10</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="V19" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>11</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>44756974</v>
       </c>
@@ -4441,12 +4505,12 @@
       <c r="P20">
         <v>1054503.9099999999</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R20" s="2">
         <v>9</v>
       </c>
-      <c r="R20" t="s">
-        <v>10</v>
-      </c>
       <c r="S20" t="s">
         <v>10</v>
       </c>
@@ -4456,17 +4520,20 @@
       <c r="U20" t="s">
         <v>10</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20">
         <v>1</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>17</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44649199</v>
       </c>
@@ -4516,11 +4583,11 @@
       <c r="P21">
         <v>333922.15000000002</v>
       </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>10</v>
+      <c r="Q21" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
       </c>
       <c r="S21" t="s">
         <v>10</v>
@@ -4531,17 +4598,20 @@
       <c r="U21" t="s">
         <v>10</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="V21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>11</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>44338336</v>
       </c>
@@ -4591,32 +4661,35 @@
       <c r="P22">
         <v>825000</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="3">
+        <v>945000</v>
+      </c>
+      <c r="R22" s="2">
         <v>-4</v>
-      </c>
-      <c r="R22" t="s">
-        <v>491</v>
       </c>
       <c r="S22" t="s">
         <v>491</v>
       </c>
       <c r="T22" t="s">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="U22" t="s">
         <v>10</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="V22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>11</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>44306903</v>
       </c>
@@ -4666,12 +4739,12 @@
       <c r="P23">
         <v>278220.93</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R23" s="2">
         <v>-5</v>
       </c>
-      <c r="R23" t="s">
-        <v>10</v>
-      </c>
       <c r="S23" t="s">
         <v>10</v>
       </c>
@@ -4681,17 +4754,20 @@
       <c r="U23" t="s">
         <v>10</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23">
         <v>2</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>44275599</v>
       </c>
@@ -4741,32 +4817,35 @@
       <c r="P24">
         <v>240477.97</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R24" s="2">
         <v>3</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>81</v>
       </c>
-      <c r="S24" t="s">
-        <v>10</v>
-      </c>
       <c r="T24" t="s">
         <v>10</v>
       </c>
       <c r="U24" t="s">
         <v>10</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="V24" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>11</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>44144875</v>
       </c>
@@ -4816,12 +4895,12 @@
       <c r="P25">
         <v>1356511.76</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R25" s="2">
         <v>4</v>
       </c>
-      <c r="R25" t="s">
-        <v>10</v>
-      </c>
       <c r="S25" t="s">
         <v>10</v>
       </c>
@@ -4831,17 +4910,20 @@
       <c r="U25" t="s">
         <v>10</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25">
         <v>1</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44103082</v>
       </c>
@@ -4891,12 +4973,12 @@
       <c r="P26">
         <v>1261402.47</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R26" s="2">
         <v>-2</v>
       </c>
-      <c r="R26" t="s">
-        <v>10</v>
-      </c>
       <c r="S26" t="s">
         <v>10</v>
       </c>
@@ -4906,17 +4988,20 @@
       <c r="U26" t="s">
         <v>10</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>91</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>43328757</v>
       </c>
@@ -4966,12 +5051,12 @@
       <c r="P27">
         <v>248780.5</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R27" s="2">
         <v>5</v>
       </c>
-      <c r="R27" t="s">
-        <v>10</v>
-      </c>
       <c r="S27" t="s">
         <v>10</v>
       </c>
@@ -4981,17 +5066,20 @@
       <c r="U27" t="s">
         <v>10</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27">
         <v>2</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>43313696</v>
       </c>
@@ -5041,12 +5129,12 @@
       <c r="P28">
         <v>785186.41</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R28" s="2">
         <v>-7</v>
       </c>
-      <c r="R28" t="s">
-        <v>10</v>
-      </c>
       <c r="S28" t="s">
         <v>10</v>
       </c>
@@ -5056,17 +5144,20 @@
       <c r="U28" t="s">
         <v>10</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28">
         <v>1</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>91</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>43287528</v>
       </c>
@@ -5116,12 +5207,12 @@
       <c r="P29">
         <v>1850021.9</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R29" s="2">
         <v>-3</v>
       </c>
-      <c r="R29" t="s">
-        <v>10</v>
-      </c>
       <c r="S29" t="s">
         <v>10</v>
       </c>
@@ -5131,17 +5222,20 @@
       <c r="U29" t="s">
         <v>10</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29">
         <v>3</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>109</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>42878423</v>
       </c>
@@ -5191,32 +5285,35 @@
       <c r="P30">
         <v>52555.16</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="3">
+        <v>112106.42</v>
+      </c>
+      <c r="R30" s="2">
         <v>3</v>
-      </c>
-      <c r="R30" t="s">
-        <v>482</v>
       </c>
       <c r="S30" t="s">
         <v>482</v>
       </c>
       <c r="T30" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U30" t="s">
         <v>10</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="V30" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
         <v>11</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>42846124</v>
       </c>
@@ -5266,12 +5363,12 @@
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R31" s="2">
         <v>3</v>
       </c>
-      <c r="R31" t="s">
-        <v>10</v>
-      </c>
       <c r="S31" t="s">
         <v>10</v>
       </c>
@@ -5279,19 +5376,22 @@
         <v>10</v>
       </c>
       <c r="U31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" t="s">
         <v>81</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>11</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>42843414</v>
       </c>
@@ -5341,11 +5441,11 @@
       <c r="P32">
         <v>226085.26</v>
       </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>10</v>
+      <c r="Q32" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
       </c>
       <c r="S32" t="s">
         <v>10</v>
@@ -5356,17 +5456,20 @@
       <c r="U32" t="s">
         <v>10</v>
       </c>
-      <c r="V32">
+      <c r="V32" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>109</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>42834886</v>
       </c>
@@ -5416,12 +5519,12 @@
       <c r="P33">
         <v>243167.16999999899</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R33" s="2">
         <v>4</v>
       </c>
-      <c r="R33" t="s">
-        <v>10</v>
-      </c>
       <c r="S33" t="s">
         <v>10</v>
       </c>
@@ -5431,17 +5534,20 @@
       <c r="U33" t="s">
         <v>10</v>
       </c>
-      <c r="V33">
+      <c r="V33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33">
         <v>2</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>120</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>42750152</v>
       </c>
@@ -5491,12 +5597,12 @@
       <c r="P34">
         <v>703093.65</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R34" s="2">
         <v>1</v>
       </c>
-      <c r="R34" t="s">
-        <v>10</v>
-      </c>
       <c r="S34" t="s">
         <v>10</v>
       </c>
@@ -5506,17 +5612,20 @@
       <c r="U34" t="s">
         <v>10</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="V34" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>11</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>42699423</v>
       </c>
@@ -5566,12 +5675,12 @@
       <c r="P35">
         <v>273158.03000000003</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R35" s="2">
         <v>-6</v>
       </c>
-      <c r="R35" t="s">
-        <v>10</v>
-      </c>
       <c r="S35" t="s">
         <v>10</v>
       </c>
@@ -5581,17 +5690,20 @@
       <c r="U35" t="s">
         <v>10</v>
       </c>
-      <c r="V35">
+      <c r="V35" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35">
         <v>1</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>91</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42628319</v>
       </c>
@@ -5641,11 +5753,11 @@
       <c r="P36">
         <v>314231.53999999998</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R36" s="2">
         <v>-2</v>
-      </c>
-      <c r="R36" t="s">
-        <v>81</v>
       </c>
       <c r="S36" t="s">
         <v>81</v>
@@ -5654,19 +5766,22 @@
         <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>10</v>
-      </c>
-      <c r="V36">
+        <v>81</v>
+      </c>
+      <c r="V36" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36">
         <v>2</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42611628</v>
       </c>
@@ -5716,12 +5831,12 @@
       <c r="P37">
         <v>850838.67</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R37" s="2">
         <v>-3</v>
       </c>
-      <c r="R37" t="s">
-        <v>10</v>
-      </c>
       <c r="S37" t="s">
         <v>10</v>
       </c>
@@ -5731,17 +5846,20 @@
       <c r="U37" t="s">
         <v>10</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="V37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
         <v>11</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Y37" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42589181</v>
       </c>
@@ -5791,12 +5909,12 @@
       <c r="P38">
         <v>500434.57999999903</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R38" s="2">
         <v>2</v>
       </c>
-      <c r="R38" t="s">
-        <v>10</v>
-      </c>
       <c r="S38" t="s">
         <v>10</v>
       </c>
@@ -5806,17 +5924,20 @@
       <c r="U38" t="s">
         <v>10</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="V38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
         <v>11</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Y38" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42572649</v>
       </c>
@@ -5866,12 +5987,12 @@
       <c r="P39">
         <v>455620.76</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R39" s="2">
         <v>-2</v>
       </c>
-      <c r="R39" t="s">
-        <v>10</v>
-      </c>
       <c r="S39" t="s">
         <v>10</v>
       </c>
@@ -5881,17 +6002,20 @@
       <c r="U39" t="s">
         <v>10</v>
       </c>
-      <c r="V39">
-        <v>6</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="V39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>6</v>
+      </c>
+      <c r="X39" t="s">
         <v>141</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Y39" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>42377791</v>
       </c>
@@ -5941,32 +6065,35 @@
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R40" s="2">
         <v>2</v>
       </c>
-      <c r="R40" t="s">
-        <v>10</v>
-      </c>
       <c r="S40" t="s">
         <v>10</v>
       </c>
       <c r="T40" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="U40" t="s">
         <v>81</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="V40" t="s">
+        <v>81</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>11</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Y40" s="4" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42335591</v>
       </c>
@@ -6016,12 +6143,12 @@
       <c r="P41">
         <v>1342352.6099999901</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R41" s="2">
         <v>3</v>
       </c>
-      <c r="R41" t="s">
-        <v>10</v>
-      </c>
       <c r="S41" t="s">
         <v>10</v>
       </c>
@@ -6031,17 +6158,20 @@
       <c r="U41" t="s">
         <v>10</v>
       </c>
-      <c r="V41">
+      <c r="V41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41">
         <v>1</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="Y41" s="4" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42134579</v>
       </c>
@@ -6091,11 +6221,11 @@
       <c r="P42">
         <v>251845.72</v>
       </c>
-      <c r="Q42" s="2">
-        <v>6</v>
-      </c>
-      <c r="R42" t="s">
-        <v>10</v>
+      <c r="Q42" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R42" s="2">
+        <v>6</v>
       </c>
       <c r="S42" t="s">
         <v>10</v>
@@ -6106,17 +6236,20 @@
       <c r="U42" t="s">
         <v>10</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="V42" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
         <v>11</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="Y42" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41799959</v>
       </c>
@@ -6166,11 +6299,11 @@
       <c r="P43">
         <v>36000</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R43" s="2">
         <v>-2</v>
-      </c>
-      <c r="R43" t="s">
-        <v>81</v>
       </c>
       <c r="S43" t="s">
         <v>81</v>
@@ -6179,19 +6312,22 @@
         <v>81</v>
       </c>
       <c r="U43" t="s">
-        <v>10</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
+        <v>81</v>
+      </c>
+      <c r="V43" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
         <v>11</v>
       </c>
-      <c r="X43" s="4" t="s">
+      <c r="Y43" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41623184</v>
       </c>
@@ -6241,32 +6377,35 @@
       <c r="P44">
         <v>399343.79</v>
       </c>
-      <c r="Q44" s="2">
-        <v>6</v>
-      </c>
-      <c r="R44" t="s">
-        <v>482</v>
+      <c r="Q44" s="3">
+        <v>379398.63</v>
+      </c>
+      <c r="R44" s="2">
+        <v>6</v>
       </c>
       <c r="S44" t="s">
         <v>482</v>
       </c>
       <c r="T44" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U44" t="s">
         <v>10</v>
       </c>
-      <c r="V44">
+      <c r="V44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44">
         <v>1</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>86</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="Y44" s="4" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41258762</v>
       </c>
@@ -6316,12 +6455,12 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R45" s="2">
         <v>1</v>
       </c>
-      <c r="R45" t="s">
-        <v>10</v>
-      </c>
       <c r="S45" t="s">
         <v>10</v>
       </c>
@@ -6329,19 +6468,22 @@
         <v>10</v>
       </c>
       <c r="U45" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" t="s">
         <v>81</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
         <v>11</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="Y45" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41187802</v>
       </c>
@@ -6391,12 +6533,12 @@
       <c r="P46">
         <v>449902.33</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R46" s="2">
         <v>-4</v>
       </c>
-      <c r="R46" t="s">
-        <v>10</v>
-      </c>
       <c r="S46" t="s">
         <v>10</v>
       </c>
@@ -6406,17 +6548,20 @@
       <c r="U46" t="s">
         <v>10</v>
       </c>
-      <c r="V46">
+      <c r="V46" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46">
         <v>3</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>109</v>
       </c>
-      <c r="X46" s="4" t="s">
+      <c r="Y46" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>41103058</v>
       </c>
@@ -6466,32 +6611,35 @@
       <c r="P47">
         <v>134800</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="3">
+        <v>167133.72</v>
+      </c>
+      <c r="R47" s="2">
         <v>-6</v>
-      </c>
-      <c r="R47" t="s">
-        <v>482</v>
       </c>
       <c r="S47" t="s">
         <v>482</v>
       </c>
       <c r="T47" t="s">
+        <v>482</v>
+      </c>
+      <c r="U47" t="s">
         <v>81</v>
       </c>
-      <c r="U47" t="s">
-        <v>10</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="V47" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
         <v>11</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="Y47" s="4" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41005490</v>
       </c>
@@ -6541,12 +6689,12 @@
       <c r="P48">
         <v>402634.79</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R48" s="2">
         <v>8</v>
       </c>
-      <c r="R48" t="s">
-        <v>10</v>
-      </c>
       <c r="S48" t="s">
         <v>10</v>
       </c>
@@ -6556,17 +6704,20 @@
       <c r="U48" t="s">
         <v>10</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48" t="s">
+      <c r="V48" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>11</v>
       </c>
-      <c r="X48" s="4" t="s">
+      <c r="Y48" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40858548</v>
       </c>
@@ -6616,12 +6767,12 @@
       <c r="P49">
         <v>496377.13</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R49" s="2">
         <v>1</v>
       </c>
-      <c r="R49" t="s">
-        <v>10</v>
-      </c>
       <c r="S49" t="s">
         <v>10</v>
       </c>
@@ -6631,17 +6782,20 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49">
+      <c r="V49" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49">
         <v>1</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>91</v>
       </c>
-      <c r="X49" s="4" t="s">
+      <c r="Y49" s="4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40728264</v>
       </c>
@@ -6691,12 +6845,12 @@
       <c r="P50">
         <v>1189540.6599999999</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R50" s="2">
         <v>-3</v>
       </c>
-      <c r="R50" t="s">
-        <v>10</v>
-      </c>
       <c r="S50" t="s">
         <v>10</v>
       </c>
@@ -6706,17 +6860,20 @@
       <c r="U50" t="s">
         <v>10</v>
       </c>
-      <c r="V50">
+      <c r="V50" t="s">
+        <v>10</v>
+      </c>
+      <c r="W50">
         <v>2</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>77</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="Y50" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40577351</v>
       </c>
@@ -6766,32 +6923,35 @@
       <c r="P51">
         <v>345800</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R51" s="2">
         <v>1</v>
-      </c>
-      <c r="R51" t="s">
-        <v>482</v>
       </c>
       <c r="S51" t="s">
         <v>482</v>
       </c>
       <c r="T51" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U51" t="s">
         <v>10</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s">
+      <c r="V51" t="s">
+        <v>10</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
         <v>11</v>
       </c>
-      <c r="X51" s="4" t="s">
+      <c r="Y51" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>40383269</v>
       </c>
@@ -6841,32 +7001,35 @@
       <c r="P52">
         <v>40284.5</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="3">
+        <v>35462.69</v>
+      </c>
+      <c r="R52" s="2">
         <v>-1</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>543</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>482</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>81</v>
       </c>
-      <c r="U52" t="s">
-        <v>10</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s">
+      <c r="V52" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>11</v>
       </c>
-      <c r="X52" s="4" t="s">
+      <c r="Y52" s="4" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40332943</v>
       </c>
@@ -6916,32 +7079,35 @@
       <c r="P53">
         <v>811600</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="3">
+        <v>680600</v>
+      </c>
+      <c r="R53" s="2">
         <v>-5</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>562</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>482</v>
       </c>
-      <c r="T53" t="s">
-        <v>10</v>
-      </c>
       <c r="U53" t="s">
         <v>10</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s">
+      <c r="V53" t="s">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
         <v>11</v>
       </c>
-      <c r="X53" s="4" t="s">
+      <c r="Y53" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40242430</v>
       </c>
@@ -6991,12 +7157,12 @@
       <c r="P54">
         <v>482905.81</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R54" s="2">
         <v>-1</v>
       </c>
-      <c r="R54" t="s">
-        <v>10</v>
-      </c>
       <c r="S54" t="s">
         <v>10</v>
       </c>
@@ -7006,17 +7172,20 @@
       <c r="U54" t="s">
         <v>10</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54" t="s">
+      <c r="V54" t="s">
+        <v>10</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
         <v>11</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="Y54" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40204874</v>
       </c>
@@ -7066,12 +7235,12 @@
       <c r="P55">
         <v>677701.82</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R55" s="2">
         <v>-3</v>
       </c>
-      <c r="R55" t="s">
-        <v>10</v>
-      </c>
       <c r="S55" t="s">
         <v>10</v>
       </c>
@@ -7081,17 +7250,20 @@
       <c r="U55" t="s">
         <v>10</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
+      <c r="V55" t="s">
+        <v>10</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
         <v>11</v>
       </c>
-      <c r="X55" s="4" t="s">
+      <c r="Y55" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40160380</v>
       </c>
@@ -7141,32 +7313,35 @@
       <c r="P56">
         <v>3286800</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="3">
+        <v>3375083.26</v>
+      </c>
+      <c r="R56" s="2">
         <v>2</v>
-      </c>
-      <c r="R56" t="s">
-        <v>482</v>
       </c>
       <c r="S56" t="s">
         <v>482</v>
       </c>
       <c r="T56" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U56" t="s">
         <v>10</v>
       </c>
-      <c r="V56">
+      <c r="V56" t="s">
+        <v>10</v>
+      </c>
+      <c r="W56">
         <v>1</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>86</v>
       </c>
-      <c r="X56" s="4" t="s">
+      <c r="Y56" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>32971154</v>
       </c>
@@ -7216,12 +7391,12 @@
       <c r="P57">
         <v>1113273.6000000001</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R57" s="2">
         <v>-7</v>
       </c>
-      <c r="R57" t="s">
-        <v>10</v>
-      </c>
       <c r="S57" t="s">
         <v>10</v>
       </c>
@@ -7231,17 +7406,20 @@
       <c r="U57" t="s">
         <v>10</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="V57" t="s">
+        <v>10</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
         <v>11</v>
       </c>
-      <c r="X57" s="4" t="s">
+      <c r="Y57" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>32923902</v>
       </c>
@@ -7291,12 +7469,12 @@
       <c r="P58">
         <v>732802.06</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R58" s="2">
         <v>7</v>
       </c>
-      <c r="R58" t="s">
-        <v>10</v>
-      </c>
       <c r="S58" t="s">
         <v>10</v>
       </c>
@@ -7306,17 +7484,20 @@
       <c r="U58" t="s">
         <v>10</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s">
+      <c r="V58" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
         <v>11</v>
       </c>
-      <c r="X58" s="4" t="s">
+      <c r="Y58" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>31031443</v>
       </c>
@@ -7366,12 +7547,12 @@
       <c r="P59">
         <v>707198.09</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R59" s="2">
         <v>3</v>
       </c>
-      <c r="R59" t="s">
-        <v>10</v>
-      </c>
       <c r="S59" t="s">
         <v>10</v>
       </c>
@@ -7381,17 +7562,20 @@
       <c r="U59" t="s">
         <v>10</v>
       </c>
-      <c r="V59">
+      <c r="V59" t="s">
+        <v>10</v>
+      </c>
+      <c r="W59">
         <v>2</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>120</v>
       </c>
-      <c r="X59" s="4" t="s">
+      <c r="Y59" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>31027035</v>
       </c>
@@ -7441,12 +7625,12 @@
       <c r="P60">
         <v>574100</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R60" s="2">
         <v>9</v>
       </c>
-      <c r="R60" t="s">
-        <v>10</v>
-      </c>
       <c r="S60" t="s">
         <v>10</v>
       </c>
@@ -7456,17 +7640,20 @@
       <c r="U60" t="s">
         <v>10</v>
       </c>
-      <c r="V60">
+      <c r="V60" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60">
         <v>2</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>191</v>
       </c>
-      <c r="X60" s="4" t="s">
+      <c r="Y60" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>29632775</v>
       </c>
@@ -7516,12 +7703,12 @@
       <c r="P61">
         <v>629576.41</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R61" s="2">
         <v>-6</v>
       </c>
-      <c r="R61" t="s">
-        <v>10</v>
-      </c>
       <c r="S61" t="s">
         <v>10</v>
       </c>
@@ -7531,17 +7718,20 @@
       <c r="U61" t="s">
         <v>10</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61" t="s">
+      <c r="V61" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
         <v>11</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="Y61" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>29423212</v>
       </c>
@@ -7591,12 +7781,12 @@
       <c r="P62">
         <v>936102.95</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R62" s="2">
         <v>4</v>
       </c>
-      <c r="R62" t="s">
-        <v>10</v>
-      </c>
       <c r="S62" t="s">
         <v>10</v>
       </c>
@@ -7606,17 +7796,20 @@
       <c r="U62" t="s">
         <v>10</v>
       </c>
-      <c r="V62">
+      <c r="V62" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62">
         <v>1</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>91</v>
       </c>
-      <c r="X62" s="4" t="s">
+      <c r="Y62" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>29410132</v>
       </c>
@@ -7666,32 +7859,35 @@
       <c r="P63">
         <v>424353.27</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63" s="3">
+        <v>365106.27</v>
+      </c>
+      <c r="R63" s="2">
         <v>-9</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>497</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>482</v>
       </c>
-      <c r="T63" t="s">
-        <v>10</v>
-      </c>
       <c r="U63" t="s">
         <v>10</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63" t="s">
+      <c r="V63" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
         <v>11</v>
       </c>
-      <c r="X63" s="4" t="s">
+      <c r="Y63" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>29384343</v>
       </c>
@@ -7741,11 +7937,11 @@
       <c r="P64">
         <v>897620.04</v>
       </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>10</v>
+      <c r="Q64" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
       </c>
       <c r="S64" t="s">
         <v>10</v>
@@ -7756,17 +7952,20 @@
       <c r="U64" t="s">
         <v>10</v>
       </c>
-      <c r="V64">
+      <c r="V64" t="s">
+        <v>10</v>
+      </c>
+      <c r="W64">
         <v>5</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>203</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="Y64" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>29299579</v>
       </c>
@@ -7816,12 +8015,12 @@
       <c r="P65">
         <v>322217.27</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="Q65" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R65" s="2">
         <v>-1</v>
       </c>
-      <c r="R65" t="s">
-        <v>10</v>
-      </c>
       <c r="S65" t="s">
         <v>10</v>
       </c>
@@ -7831,17 +8030,20 @@
       <c r="U65" t="s">
         <v>10</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65" t="s">
+      <c r="V65" t="s">
+        <v>10</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
         <v>11</v>
       </c>
-      <c r="X65" s="4" t="s">
+      <c r="Y65" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>28300174</v>
       </c>
@@ -7891,12 +8093,12 @@
       <c r="P66">
         <v>3543826.94</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R66" s="2">
         <v>-2</v>
       </c>
-      <c r="R66" t="s">
-        <v>10</v>
-      </c>
       <c r="S66" t="s">
         <v>10</v>
       </c>
@@ -7906,17 +8108,20 @@
       <c r="U66" t="s">
         <v>10</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s">
+      <c r="V66" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
         <v>11</v>
       </c>
-      <c r="X66" s="4" t="s">
+      <c r="Y66" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>27361499</v>
       </c>
@@ -7966,12 +8171,12 @@
       <c r="P67">
         <v>672555.15</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R67" s="2">
         <v>-4</v>
       </c>
-      <c r="R67" t="s">
-        <v>10</v>
-      </c>
       <c r="S67" t="s">
         <v>10</v>
       </c>
@@ -7981,17 +8186,20 @@
       <c r="U67" t="s">
         <v>10</v>
       </c>
-      <c r="V67">
+      <c r="V67" t="s">
+        <v>10</v>
+      </c>
+      <c r="W67">
         <v>1</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>91</v>
       </c>
-      <c r="X67" s="4" t="s">
+      <c r="Y67" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>27080597</v>
       </c>
@@ -8041,32 +8249,35 @@
       <c r="P68">
         <v>68558</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R68" s="2">
         <v>5</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>81</v>
       </c>
-      <c r="S68" t="s">
-        <v>10</v>
-      </c>
       <c r="T68" t="s">
         <v>10</v>
       </c>
       <c r="U68" t="s">
         <v>10</v>
       </c>
-      <c r="V68">
+      <c r="V68" t="s">
+        <v>10</v>
+      </c>
+      <c r="W68">
         <v>2</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>77</v>
       </c>
-      <c r="X68" s="4" t="s">
+      <c r="Y68" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>25700579</v>
       </c>
@@ -8116,12 +8327,12 @@
       <c r="P69">
         <v>50121.2</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R69" s="2">
         <v>1</v>
       </c>
-      <c r="R69" t="s">
-        <v>10</v>
-      </c>
       <c r="S69" t="s">
         <v>10</v>
       </c>
@@ -8131,17 +8342,20 @@
       <c r="U69" t="s">
         <v>10</v>
       </c>
-      <c r="V69">
+      <c r="V69" t="s">
+        <v>10</v>
+      </c>
+      <c r="W69">
         <v>1</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>91</v>
       </c>
-      <c r="X69" s="4" t="s">
+      <c r="Y69" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25567150</v>
       </c>
@@ -8191,11 +8405,11 @@
       <c r="P70">
         <v>2988432</v>
       </c>
-      <c r="Q70" s="2">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>10</v>
+      <c r="Q70" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0</v>
       </c>
       <c r="S70" t="s">
         <v>10</v>
@@ -8206,17 +8420,20 @@
       <c r="U70" t="s">
         <v>10</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="V70" t="s">
+        <v>10</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
         <v>11</v>
       </c>
-      <c r="X70" s="4" t="s">
+      <c r="Y70" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>25542661</v>
       </c>
@@ -8266,12 +8483,12 @@
       <c r="P71">
         <v>582969.65</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R71" s="2">
         <v>-8</v>
       </c>
-      <c r="R71" t="s">
-        <v>10</v>
-      </c>
       <c r="S71" t="s">
         <v>10</v>
       </c>
@@ -8281,17 +8498,20 @@
       <c r="U71" t="s">
         <v>10</v>
       </c>
-      <c r="V71">
+      <c r="V71" t="s">
+        <v>10</v>
+      </c>
+      <c r="W71">
         <v>3</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="4" t="s">
+      <c r="Y71" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24711696</v>
       </c>
@@ -8341,12 +8561,12 @@
       <c r="P72">
         <v>734489.34</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R72" s="2">
         <v>8</v>
       </c>
-      <c r="R72" t="s">
-        <v>10</v>
-      </c>
       <c r="S72" t="s">
         <v>10</v>
       </c>
@@ -8356,17 +8576,20 @@
       <c r="U72" t="s">
         <v>10</v>
       </c>
-      <c r="V72">
+      <c r="V72" t="s">
+        <v>10</v>
+      </c>
+      <c r="W72">
         <v>3</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>109</v>
       </c>
-      <c r="X72" s="4" t="s">
+      <c r="Y72" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>23977149</v>
       </c>
@@ -8416,12 +8639,12 @@
       <c r="P73">
         <v>1636078.78</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R73" s="2">
         <v>-6</v>
       </c>
-      <c r="R73" t="s">
-        <v>10</v>
-      </c>
       <c r="S73" t="s">
         <v>10</v>
       </c>
@@ -8431,17 +8654,20 @@
       <c r="U73" t="s">
         <v>10</v>
       </c>
-      <c r="V73">
+      <c r="V73" t="s">
+        <v>10</v>
+      </c>
+      <c r="W73">
         <v>4</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>235</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="Y73" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>23901989</v>
       </c>
@@ -8491,12 +8717,12 @@
       <c r="P74">
         <v>3304250.94</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q74" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R74" s="2">
         <v>3</v>
       </c>
-      <c r="R74" t="s">
-        <v>10</v>
-      </c>
       <c r="S74" t="s">
         <v>10</v>
       </c>
@@ -8506,17 +8732,20 @@
       <c r="U74" t="s">
         <v>10</v>
       </c>
-      <c r="V74">
+      <c r="V74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W74">
         <v>4</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>240</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="Y74" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>23266777</v>
       </c>
@@ -8566,32 +8795,35 @@
       <c r="P75">
         <v>1021058.24</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="3">
+        <v>1151775.82</v>
+      </c>
+      <c r="R75" s="2">
         <v>7</v>
-      </c>
-      <c r="R75" t="s">
-        <v>482</v>
       </c>
       <c r="S75" t="s">
         <v>482</v>
       </c>
       <c r="T75" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U75" t="s">
         <v>10</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75" t="s">
+      <c r="V75" t="s">
+        <v>10</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
         <v>11</v>
       </c>
-      <c r="X75" s="4" t="s">
+      <c r="Y75" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>23017616</v>
       </c>
@@ -8641,11 +8873,11 @@
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>10</v>
+      <c r="Q76" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R76" s="2">
+        <v>0</v>
       </c>
       <c r="S76" t="s">
         <v>10</v>
@@ -8654,19 +8886,22 @@
         <v>10</v>
       </c>
       <c r="U76" t="s">
+        <v>10</v>
+      </c>
+      <c r="V76" t="s">
         <v>81</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>1</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>86</v>
       </c>
-      <c r="X76" s="4" t="s">
+      <c r="Y76" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>22510256</v>
       </c>
@@ -8716,12 +8951,12 @@
       <c r="P77">
         <v>268447.84999999998</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="Q77" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R77" s="2">
         <v>-8</v>
       </c>
-      <c r="R77" t="s">
-        <v>10</v>
-      </c>
       <c r="S77" t="s">
         <v>10</v>
       </c>
@@ -8731,17 +8966,20 @@
       <c r="U77" t="s">
         <v>10</v>
       </c>
-      <c r="V77">
+      <c r="V77" t="s">
+        <v>10</v>
+      </c>
+      <c r="W77">
         <v>1</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>91</v>
       </c>
-      <c r="X77" s="4" t="s">
+      <c r="Y77" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>22423252</v>
       </c>
@@ -8791,32 +9029,35 @@
       <c r="P78">
         <v>4160384.39</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="Q78" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R78" s="2">
         <v>1</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>525</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>482</v>
       </c>
-      <c r="T78" t="s">
-        <v>10</v>
-      </c>
       <c r="U78" t="s">
         <v>10</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78" t="s">
+      <c r="V78" t="s">
+        <v>10</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
         <v>11</v>
       </c>
-      <c r="X78" s="4" t="s">
+      <c r="Y78" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>22290935</v>
       </c>
@@ -8866,12 +9107,12 @@
       <c r="P79">
         <v>562212</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R79" s="2">
         <v>7</v>
       </c>
-      <c r="R79" t="s">
-        <v>10</v>
-      </c>
       <c r="S79" t="s">
         <v>10</v>
       </c>
@@ -8881,17 +9122,20 @@
       <c r="U79" t="s">
         <v>10</v>
       </c>
-      <c r="V79">
+      <c r="V79" t="s">
+        <v>10</v>
+      </c>
+      <c r="W79">
         <v>4</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>252</v>
       </c>
-      <c r="X79" s="4" t="s">
+      <c r="Y79" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21569935</v>
       </c>
@@ -8941,12 +9185,12 @@
       <c r="P80">
         <v>13455352.35</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R80" s="2">
         <v>-1</v>
       </c>
-      <c r="R80" t="s">
-        <v>10</v>
-      </c>
       <c r="S80" t="s">
         <v>10</v>
       </c>
@@ -8956,17 +9200,20 @@
       <c r="U80" t="s">
         <v>10</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80" t="s">
+      <c r="V80" t="s">
+        <v>10</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
         <v>11</v>
       </c>
-      <c r="X80" s="4" t="s">
+      <c r="Y80" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21564196</v>
       </c>
@@ -9016,12 +9263,12 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R81" s="2">
         <v>-1</v>
       </c>
-      <c r="R81" t="s">
-        <v>10</v>
-      </c>
       <c r="S81" t="s">
         <v>10</v>
       </c>
@@ -9029,19 +9276,22 @@
         <v>10</v>
       </c>
       <c r="U81" t="s">
+        <v>10</v>
+      </c>
+      <c r="V81" t="s">
         <v>81</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81" t="s">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81" t="s">
         <v>11</v>
       </c>
-      <c r="X81" s="4" t="s">
+      <c r="Y81" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21456255</v>
       </c>
@@ -9091,12 +9341,12 @@
       <c r="P82">
         <v>428512.9</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R82" s="2">
         <v>-8</v>
       </c>
-      <c r="R82" t="s">
-        <v>10</v>
-      </c>
       <c r="S82" t="s">
         <v>10</v>
       </c>
@@ -9106,17 +9356,20 @@
       <c r="U82" t="s">
         <v>10</v>
       </c>
-      <c r="V82">
+      <c r="V82" t="s">
+        <v>10</v>
+      </c>
+      <c r="W82">
         <v>1</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>86</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="Y82" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21422808</v>
       </c>
@@ -9166,32 +9419,35 @@
       <c r="P83">
         <v>2137718.9</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="Q83" s="3">
+        <v>172049.61</v>
+      </c>
+      <c r="R83" s="2">
         <v>2</v>
-      </c>
-      <c r="R83" t="s">
-        <v>482</v>
       </c>
       <c r="S83" t="s">
         <v>482</v>
       </c>
       <c r="T83" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U83" t="s">
         <v>10</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83" t="s">
+      <c r="V83" t="s">
+        <v>10</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
         <v>11</v>
       </c>
-      <c r="X83" s="4" t="s">
+      <c r="Y83" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20055251</v>
       </c>
@@ -9241,32 +9497,35 @@
       <c r="P84">
         <v>15000</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="Q84" s="3">
+        <v>690000</v>
+      </c>
+      <c r="R84" s="2">
         <v>-4</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>536</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>482</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>81</v>
       </c>
-      <c r="U84" t="s">
-        <v>10</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84" t="s">
+      <c r="V84" t="s">
+        <v>10</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
         <v>11</v>
       </c>
-      <c r="X84" s="4" t="s">
+      <c r="Y84" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20051359</v>
       </c>
@@ -9316,12 +9575,12 @@
       <c r="P85">
         <v>1142678.0900000001</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="Q85" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R85" s="2">
         <v>-5</v>
       </c>
-      <c r="R85" t="s">
-        <v>10</v>
-      </c>
       <c r="S85" t="s">
         <v>10</v>
       </c>
@@ -9331,17 +9590,20 @@
       <c r="U85" t="s">
         <v>10</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85" t="s">
+      <c r="V85" t="s">
+        <v>10</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
         <v>11</v>
       </c>
-      <c r="X85" s="4" t="s">
+      <c r="Y85" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>20036514</v>
       </c>
@@ -9391,12 +9653,12 @@
       <c r="P86">
         <v>599316.96</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="Q86" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R86" s="2">
         <v>-7</v>
       </c>
-      <c r="R86" t="s">
-        <v>10</v>
-      </c>
       <c r="S86" t="s">
         <v>10</v>
       </c>
@@ -9406,17 +9668,20 @@
       <c r="U86" t="s">
         <v>10</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86" t="s">
+      <c r="V86" t="s">
+        <v>10</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
         <v>11</v>
       </c>
-      <c r="X86" s="4" t="s">
+      <c r="Y86" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>19994639</v>
       </c>
@@ -9466,12 +9731,12 @@
       <c r="P87">
         <v>2993672.25</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R87" s="2">
         <v>1</v>
       </c>
-      <c r="R87" t="s">
-        <v>10</v>
-      </c>
       <c r="S87" t="s">
         <v>10</v>
       </c>
@@ -9481,17 +9746,20 @@
       <c r="U87" t="s">
         <v>10</v>
       </c>
-      <c r="V87">
+      <c r="V87" t="s">
+        <v>10</v>
+      </c>
+      <c r="W87">
         <v>1</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>17</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="Y87" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>19877916</v>
       </c>
@@ -9541,10 +9809,10 @@
       <c r="P88">
         <v>1591766.23</v>
       </c>
-      <c r="Q88" s="2">
-        <v>10</v>
-      </c>
-      <c r="R88" t="s">
+      <c r="Q88" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R88" s="2">
         <v>10</v>
       </c>
       <c r="S88" t="s">
@@ -9556,17 +9824,20 @@
       <c r="U88" t="s">
         <v>10</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88" t="s">
+      <c r="V88" t="s">
+        <v>10</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88" t="s">
         <v>11</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="Y88" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>18099931</v>
       </c>
@@ -9616,12 +9887,12 @@
       <c r="P89">
         <v>262220.71999999997</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="Q89" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R89" s="2">
         <v>7</v>
       </c>
-      <c r="R89" t="s">
-        <v>10</v>
-      </c>
       <c r="S89" t="s">
         <v>10</v>
       </c>
@@ -9631,17 +9902,20 @@
       <c r="U89" t="s">
         <v>10</v>
       </c>
-      <c r="V89">
+      <c r="V89" t="s">
+        <v>10</v>
+      </c>
+      <c r="W89">
         <v>1</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>91</v>
       </c>
-      <c r="X89" s="4" t="s">
+      <c r="Y89" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>18099367</v>
       </c>
@@ -9691,11 +9965,11 @@
       <c r="P90">
         <v>2566299.52</v>
       </c>
-      <c r="Q90" s="2">
-        <v>6</v>
-      </c>
-      <c r="R90" t="s">
-        <v>10</v>
+      <c r="Q90" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R90" s="2">
+        <v>6</v>
       </c>
       <c r="S90" t="s">
         <v>10</v>
@@ -9706,17 +9980,20 @@
       <c r="U90" t="s">
         <v>10</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90" t="s">
+      <c r="V90" t="s">
+        <v>10</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
         <v>11</v>
       </c>
-      <c r="X90" s="4" t="s">
+      <c r="Y90" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>18080185</v>
       </c>
@@ -9766,11 +10043,11 @@
       <c r="P91">
         <v>485932</v>
       </c>
-      <c r="Q91" s="2">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>10</v>
+      <c r="Q91" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
       </c>
       <c r="S91" t="s">
         <v>10</v>
@@ -9781,17 +10058,20 @@
       <c r="U91" t="s">
         <v>10</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91" t="s">
+      <c r="V91" t="s">
+        <v>10</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
         <v>11</v>
       </c>
-      <c r="X91" s="4" t="s">
+      <c r="Y91" s="4" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>18032382</v>
       </c>
@@ -9841,12 +10121,12 @@
       <c r="P92">
         <v>199354.34</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="Q92" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R92" s="2">
         <v>-4</v>
       </c>
-      <c r="R92" t="s">
-        <v>10</v>
-      </c>
       <c r="S92" t="s">
         <v>10</v>
       </c>
@@ -9856,17 +10136,20 @@
       <c r="U92" t="s">
         <v>10</v>
       </c>
-      <c r="V92">
+      <c r="V92" t="s">
+        <v>10</v>
+      </c>
+      <c r="W92">
         <v>4</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>252</v>
       </c>
-      <c r="X92" s="4" t="s">
+      <c r="Y92" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>17903382</v>
       </c>
@@ -9916,32 +10199,35 @@
       <c r="P93">
         <v>88164515.640000001</v>
       </c>
-      <c r="Q93" s="2">
-        <v>0</v>
-      </c>
-      <c r="R93" t="s">
-        <v>482</v>
+      <c r="Q93" s="3">
+        <v>133465277.42</v>
+      </c>
+      <c r="R93" s="2">
+        <v>0</v>
       </c>
       <c r="S93" t="s">
         <v>482</v>
       </c>
       <c r="T93" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U93" t="s">
         <v>10</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93" t="s">
+      <c r="V93" t="s">
+        <v>10</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93" t="s">
         <v>11</v>
       </c>
-      <c r="X93" s="4" t="s">
+      <c r="Y93" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>17896798</v>
       </c>
@@ -9991,12 +10277,12 @@
       <c r="P94">
         <v>4562951.1100000003</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R94" s="2">
         <v>2</v>
       </c>
-      <c r="R94" t="s">
-        <v>10</v>
-      </c>
       <c r="S94" t="s">
         <v>10</v>
       </c>
@@ -10006,17 +10292,20 @@
       <c r="U94" t="s">
         <v>10</v>
       </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94" t="s">
+      <c r="V94" t="s">
+        <v>10</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94" t="s">
         <v>11</v>
       </c>
-      <c r="X94" s="4" t="s">
+      <c r="Y94" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>17549232</v>
       </c>
@@ -10066,11 +10355,11 @@
       <c r="P95">
         <v>555735.38</v>
       </c>
-      <c r="Q95" s="2">
-        <v>6</v>
-      </c>
-      <c r="R95" t="s">
-        <v>10</v>
+      <c r="Q95" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R95" s="2">
+        <v>6</v>
       </c>
       <c r="S95" t="s">
         <v>10</v>
@@ -10081,17 +10370,20 @@
       <c r="U95" t="s">
         <v>10</v>
       </c>
-      <c r="V95">
+      <c r="V95" t="s">
+        <v>10</v>
+      </c>
+      <c r="W95">
         <v>2</v>
       </c>
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>77</v>
       </c>
-      <c r="X95" s="4" t="s">
+      <c r="Y95" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>16751831</v>
       </c>
@@ -10141,12 +10433,12 @@
       <c r="P96">
         <v>1948475.05</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="Q96" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R96" s="2">
         <v>-1</v>
       </c>
-      <c r="R96" t="s">
-        <v>10</v>
-      </c>
       <c r="S96" t="s">
         <v>10</v>
       </c>
@@ -10156,17 +10448,20 @@
       <c r="U96" t="s">
         <v>10</v>
       </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96" t="s">
+      <c r="V96" t="s">
+        <v>10</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96" t="s">
         <v>11</v>
       </c>
-      <c r="X96" s="4" t="s">
+      <c r="Y96" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>16719182</v>
       </c>
@@ -10216,12 +10511,12 @@
       <c r="P97">
         <v>535023.72</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="Q97" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R97" s="2">
         <v>3</v>
       </c>
-      <c r="R97" t="s">
-        <v>10</v>
-      </c>
       <c r="S97" t="s">
         <v>10</v>
       </c>
@@ -10231,17 +10526,20 @@
       <c r="U97" t="s">
         <v>10</v>
       </c>
-      <c r="V97">
+      <c r="V97" t="s">
+        <v>10</v>
+      </c>
+      <c r="W97">
         <v>2</v>
       </c>
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>77</v>
       </c>
-      <c r="X97" s="4" t="s">
+      <c r="Y97" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>16667146</v>
       </c>
@@ -10291,12 +10589,12 @@
       <c r="P98">
         <v>780147.26</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R98" s="2">
         <v>-9</v>
       </c>
-      <c r="R98" t="s">
-        <v>10</v>
-      </c>
       <c r="S98" t="s">
         <v>10</v>
       </c>
@@ -10306,17 +10604,20 @@
       <c r="U98" t="s">
         <v>10</v>
       </c>
-      <c r="V98">
+      <c r="V98" t="s">
+        <v>10</v>
+      </c>
+      <c r="W98">
         <v>1</v>
       </c>
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>91</v>
       </c>
-      <c r="X98" s="4" t="s">
+      <c r="Y98" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>16655831</v>
       </c>
@@ -10366,10 +10667,10 @@
       <c r="P99">
         <v>578562.56999999995</v>
       </c>
-      <c r="Q99" s="2">
-        <v>10</v>
-      </c>
-      <c r="R99" t="s">
+      <c r="Q99" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R99" s="2">
         <v>10</v>
       </c>
       <c r="S99" t="s">
@@ -10381,17 +10682,20 @@
       <c r="U99" t="s">
         <v>10</v>
       </c>
-      <c r="V99">
+      <c r="V99" t="s">
+        <v>10</v>
+      </c>
+      <c r="W99">
         <v>2</v>
       </c>
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>308</v>
       </c>
-      <c r="X99" s="4" t="s">
+      <c r="Y99" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>16642438</v>
       </c>
@@ -10441,12 +10745,12 @@
       <c r="P100">
         <v>1293302.6299999999</v>
       </c>
-      <c r="Q100" s="2">
+      <c r="Q100" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R100" s="2">
         <v>1</v>
       </c>
-      <c r="R100" t="s">
-        <v>10</v>
-      </c>
       <c r="S100" t="s">
         <v>10</v>
       </c>
@@ -10456,17 +10760,20 @@
       <c r="U100" t="s">
         <v>10</v>
       </c>
-      <c r="V100">
+      <c r="V100" t="s">
+        <v>10</v>
+      </c>
+      <c r="W100">
         <v>2</v>
       </c>
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>120</v>
       </c>
-      <c r="X100" s="4" t="s">
+      <c r="Y100" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>16448130</v>
       </c>
@@ -10516,12 +10823,12 @@
       <c r="P101">
         <v>1647898.8299999901</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R101" s="2">
         <v>-5</v>
       </c>
-      <c r="R101" t="s">
-        <v>10</v>
-      </c>
       <c r="S101" t="s">
         <v>10</v>
       </c>
@@ -10531,17 +10838,20 @@
       <c r="U101" t="s">
         <v>10</v>
       </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101" t="s">
+      <c r="V101" t="s">
+        <v>10</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101" t="s">
         <v>11</v>
       </c>
-      <c r="X101" s="4" t="s">
+      <c r="Y101" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>16429203</v>
       </c>
@@ -10591,12 +10901,12 @@
       <c r="P102">
         <v>1782818.72</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="Q102" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R102" s="2">
         <v>-4</v>
       </c>
-      <c r="R102" t="s">
-        <v>10</v>
-      </c>
       <c r="S102" t="s">
         <v>10</v>
       </c>
@@ -10606,17 +10916,20 @@
       <c r="U102" t="s">
         <v>10</v>
       </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102" t="s">
+      <c r="V102" t="s">
+        <v>10</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102" t="s">
         <v>11</v>
       </c>
-      <c r="X102" s="4" t="s">
+      <c r="Y102" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>16002918</v>
       </c>
@@ -10666,12 +10979,12 @@
       <c r="P103">
         <v>377412.9</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="Q103" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R103" s="2">
         <v>4</v>
       </c>
-      <c r="R103" t="s">
-        <v>10</v>
-      </c>
       <c r="S103" t="s">
         <v>10</v>
       </c>
@@ -10681,17 +10994,20 @@
       <c r="U103" t="s">
         <v>10</v>
       </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103" t="s">
+      <c r="V103" t="s">
+        <v>10</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103" t="s">
         <v>11</v>
       </c>
-      <c r="X103" s="4" t="s">
+      <c r="Y103" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>15300817</v>
       </c>
@@ -10741,12 +11057,12 @@
       <c r="P104">
         <v>535274.62</v>
       </c>
-      <c r="Q104" s="2">
+      <c r="Q104" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R104" s="2">
         <v>4</v>
       </c>
-      <c r="R104" t="s">
-        <v>10</v>
-      </c>
       <c r="S104" t="s">
         <v>10</v>
       </c>
@@ -10756,17 +11072,20 @@
       <c r="U104" t="s">
         <v>10</v>
       </c>
-      <c r="V104">
+      <c r="V104" t="s">
+        <v>10</v>
+      </c>
+      <c r="W104">
         <v>2</v>
       </c>
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>77</v>
       </c>
-      <c r="X104" s="4" t="s">
+      <c r="Y104" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10806296</v>
       </c>
@@ -10816,12 +11135,12 @@
       <c r="P105">
         <v>878400.38999999897</v>
       </c>
-      <c r="Q105" s="2">
+      <c r="Q105" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R105" s="2">
         <v>-1</v>
       </c>
-      <c r="R105" t="s">
-        <v>10</v>
-      </c>
       <c r="S105" t="s">
         <v>10</v>
       </c>
@@ -10831,17 +11150,20 @@
       <c r="U105" t="s">
         <v>10</v>
       </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105" t="s">
+      <c r="V105" t="s">
+        <v>10</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105" t="s">
         <v>11</v>
       </c>
-      <c r="X105" s="4" t="s">
+      <c r="Y105" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10804834</v>
       </c>
@@ -10891,12 +11213,12 @@
       <c r="P106">
         <v>933018.57</v>
       </c>
-      <c r="Q106" s="2">
+      <c r="Q106" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R106" s="2">
         <v>3</v>
       </c>
-      <c r="R106" t="s">
-        <v>10</v>
-      </c>
       <c r="S106" t="s">
         <v>10</v>
       </c>
@@ -10906,17 +11228,20 @@
       <c r="U106" t="s">
         <v>10</v>
       </c>
-      <c r="V106">
+      <c r="V106" t="s">
+        <v>10</v>
+      </c>
+      <c r="W106">
         <v>2</v>
       </c>
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>77</v>
       </c>
-      <c r="X106" s="4" t="s">
+      <c r="Y106" s="4" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10691398</v>
       </c>
@@ -10966,12 +11291,12 @@
       <c r="P107">
         <v>396611.20999999897</v>
       </c>
-      <c r="Q107" s="2">
+      <c r="Q107" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R107" s="2">
         <v>5</v>
       </c>
-      <c r="R107" t="s">
-        <v>10</v>
-      </c>
       <c r="S107" t="s">
         <v>10</v>
       </c>
@@ -10981,17 +11306,20 @@
       <c r="U107" t="s">
         <v>10</v>
       </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107" t="s">
+      <c r="V107" t="s">
+        <v>10</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107" t="s">
         <v>11</v>
       </c>
-      <c r="X107" s="4" t="s">
+      <c r="Y107" s="4" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10491661</v>
       </c>
@@ -11041,32 +11369,35 @@
       <c r="P108">
         <v>2108057.06</v>
       </c>
-      <c r="Q108" s="2">
+      <c r="Q108" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R108" s="2">
         <v>1</v>
-      </c>
-      <c r="R108" t="s">
-        <v>81</v>
       </c>
       <c r="S108" t="s">
         <v>81</v>
       </c>
       <c r="T108" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="U108" t="s">
         <v>10</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108" t="s">
+      <c r="V108" t="s">
+        <v>10</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108" t="s">
         <v>11</v>
       </c>
-      <c r="X108" s="4" t="s">
+      <c r="Y108" s="4" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10485497</v>
       </c>
@@ -11116,11 +11447,11 @@
       <c r="P109">
         <v>726829.39</v>
       </c>
-      <c r="Q109" s="2">
-        <v>6</v>
-      </c>
-      <c r="R109" t="s">
-        <v>10</v>
+      <c r="Q109" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R109" s="2">
+        <v>6</v>
       </c>
       <c r="S109" t="s">
         <v>10</v>
@@ -11131,17 +11462,20 @@
       <c r="U109" t="s">
         <v>10</v>
       </c>
-      <c r="V109">
+      <c r="V109" t="s">
+        <v>10</v>
+      </c>
+      <c r="W109">
         <v>2</v>
       </c>
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>77</v>
       </c>
-      <c r="X109" s="4" t="s">
+      <c r="Y109" s="4" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10280036</v>
       </c>
@@ -11191,12 +11525,12 @@
       <c r="P110">
         <v>413559.37</v>
       </c>
-      <c r="Q110" s="2">
+      <c r="Q110" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R110" s="2">
         <v>-10</v>
       </c>
-      <c r="R110" t="s">
-        <v>10</v>
-      </c>
       <c r="S110" t="s">
         <v>10</v>
       </c>
@@ -11206,17 +11540,20 @@
       <c r="U110" t="s">
         <v>10</v>
       </c>
-      <c r="V110">
+      <c r="V110" t="s">
+        <v>10</v>
+      </c>
+      <c r="W110">
         <v>2</v>
       </c>
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>77</v>
       </c>
-      <c r="X110" s="4" t="s">
+      <c r="Y110" s="4" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10213424</v>
       </c>
@@ -11266,12 +11603,12 @@
       <c r="P111">
         <v>916809.76</v>
       </c>
-      <c r="Q111" s="2">
+      <c r="Q111" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R111" s="2">
         <v>2</v>
       </c>
-      <c r="R111" t="s">
-        <v>10</v>
-      </c>
       <c r="S111" t="s">
         <v>10</v>
       </c>
@@ -11281,17 +11618,20 @@
       <c r="U111" t="s">
         <v>10</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111" t="s">
+      <c r="V111" t="s">
+        <v>10</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111" t="s">
         <v>11</v>
       </c>
-      <c r="X111" s="4" t="s">
+      <c r="Y111" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10129700</v>
       </c>
@@ -11341,12 +11681,12 @@
       <c r="P112">
         <v>436557.83</v>
       </c>
-      <c r="Q112" s="2">
+      <c r="Q112" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R112" s="2">
         <v>-6</v>
       </c>
-      <c r="R112" t="s">
-        <v>10</v>
-      </c>
       <c r="S112" t="s">
         <v>10</v>
       </c>
@@ -11356,17 +11696,20 @@
       <c r="U112" t="s">
         <v>10</v>
       </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112" t="s">
+      <c r="V112" t="s">
+        <v>10</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112" t="s">
         <v>11</v>
       </c>
-      <c r="X112" s="4" t="s">
+      <c r="Y112" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>9980339</v>
       </c>
@@ -11416,12 +11759,12 @@
       <c r="P113">
         <v>269935.03000000003</v>
       </c>
-      <c r="Q113" s="2">
+      <c r="Q113" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R113" s="2">
         <v>-7</v>
       </c>
-      <c r="R113" t="s">
-        <v>10</v>
-      </c>
       <c r="S113" t="s">
         <v>10</v>
       </c>
@@ -11431,17 +11774,20 @@
       <c r="U113" t="s">
         <v>10</v>
       </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113" t="s">
+      <c r="V113" t="s">
+        <v>10</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113" t="s">
         <v>11</v>
       </c>
-      <c r="X113" s="4" t="s">
+      <c r="Y113" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9575873</v>
       </c>
@@ -11491,12 +11837,12 @@
       <c r="P114">
         <v>867733.19</v>
       </c>
-      <c r="Q114" s="2">
+      <c r="Q114" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R114" s="2">
         <v>-2</v>
       </c>
-      <c r="R114" t="s">
-        <v>10</v>
-      </c>
       <c r="S114" t="s">
         <v>10</v>
       </c>
@@ -11506,17 +11852,20 @@
       <c r="U114" t="s">
         <v>10</v>
       </c>
-      <c r="V114">
+      <c r="V114" t="s">
+        <v>10</v>
+      </c>
+      <c r="W114">
         <v>5</v>
       </c>
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>354</v>
       </c>
-      <c r="X114" s="4" t="s">
+      <c r="Y114" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9303945</v>
       </c>
@@ -11566,12 +11915,12 @@
       <c r="P115">
         <v>769394.7</v>
       </c>
-      <c r="Q115" s="2">
+      <c r="Q115" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R115" s="2">
         <v>9</v>
       </c>
-      <c r="R115" t="s">
-        <v>10</v>
-      </c>
       <c r="S115" t="s">
         <v>10</v>
       </c>
@@ -11581,17 +11930,20 @@
       <c r="U115" t="s">
         <v>10</v>
       </c>
-      <c r="V115">
+      <c r="V115" t="s">
+        <v>10</v>
+      </c>
+      <c r="W115">
         <v>2</v>
       </c>
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>77</v>
       </c>
-      <c r="X115" s="4" t="s">
+      <c r="Y115" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>9303898</v>
       </c>
@@ -11641,12 +11993,12 @@
       <c r="P116">
         <v>1137851.3799999999</v>
       </c>
-      <c r="Q116" s="2">
+      <c r="Q116" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R116" s="2">
         <v>-6</v>
       </c>
-      <c r="R116" t="s">
-        <v>10</v>
-      </c>
       <c r="S116" t="s">
         <v>10</v>
       </c>
@@ -11656,17 +12008,20 @@
       <c r="U116" t="s">
         <v>10</v>
       </c>
-      <c r="V116">
+      <c r="V116" t="s">
+        <v>10</v>
+      </c>
+      <c r="W116">
         <v>1</v>
       </c>
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>17</v>
       </c>
-      <c r="X116" s="4" t="s">
+      <c r="Y116" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8911520</v>
       </c>
@@ -11716,12 +12071,12 @@
       <c r="P117">
         <v>295711.42</v>
       </c>
-      <c r="Q117" s="2">
+      <c r="Q117" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R117" s="2">
         <v>-4</v>
       </c>
-      <c r="R117" t="s">
-        <v>10</v>
-      </c>
       <c r="S117" t="s">
         <v>10</v>
       </c>
@@ -11731,17 +12086,20 @@
       <c r="U117" t="s">
         <v>10</v>
       </c>
-      <c r="V117">
+      <c r="V117" t="s">
+        <v>10</v>
+      </c>
+      <c r="W117">
         <v>1</v>
       </c>
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>91</v>
       </c>
-      <c r="X117" s="4" t="s">
+      <c r="Y117" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8271323</v>
       </c>
@@ -11791,12 +12149,12 @@
       <c r="P118">
         <v>2760768.51</v>
       </c>
-      <c r="Q118" s="2">
+      <c r="Q118" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R118" s="2">
         <v>-2</v>
       </c>
-      <c r="R118" t="s">
-        <v>10</v>
-      </c>
       <c r="S118" t="s">
         <v>10</v>
       </c>
@@ -11806,17 +12164,20 @@
       <c r="U118" t="s">
         <v>10</v>
       </c>
-      <c r="V118">
+      <c r="V118" t="s">
+        <v>10</v>
+      </c>
+      <c r="W118">
         <v>1</v>
       </c>
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>17</v>
       </c>
-      <c r="X118" s="4" t="s">
+      <c r="Y118" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8236035</v>
       </c>
@@ -11866,12 +12227,12 @@
       <c r="P119">
         <v>3619904.51</v>
       </c>
-      <c r="Q119" s="2">
+      <c r="Q119" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R119" s="2">
         <v>-1</v>
       </c>
-      <c r="R119" t="s">
-        <v>10</v>
-      </c>
       <c r="S119" t="s">
         <v>10</v>
       </c>
@@ -11881,17 +12242,20 @@
       <c r="U119" t="s">
         <v>10</v>
       </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="W119" t="s">
+      <c r="V119" t="s">
+        <v>10</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119" t="s">
         <v>11</v>
       </c>
-      <c r="X119" s="4" t="s">
+      <c r="Y119" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>8232920</v>
       </c>
@@ -11941,12 +12305,12 @@
       <c r="P120">
         <v>2392420</v>
       </c>
-      <c r="Q120" s="2">
+      <c r="Q120" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R120" s="2">
         <v>5</v>
       </c>
-      <c r="R120" t="s">
-        <v>10</v>
-      </c>
       <c r="S120" t="s">
         <v>10</v>
       </c>
@@ -11956,17 +12320,20 @@
       <c r="U120" t="s">
         <v>10</v>
       </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120" t="s">
+      <c r="V120" t="s">
+        <v>10</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120" t="s">
         <v>11</v>
       </c>
-      <c r="X120" s="4" t="s">
+      <c r="Y120" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>8185259</v>
       </c>
@@ -12016,12 +12383,12 @@
       <c r="P121">
         <v>690448.42</v>
       </c>
-      <c r="Q121" s="2">
+      <c r="Q121" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R121" s="2">
         <v>-1</v>
       </c>
-      <c r="R121" t="s">
-        <v>10</v>
-      </c>
       <c r="S121" t="s">
         <v>10</v>
       </c>
@@ -12031,17 +12398,20 @@
       <c r="U121" t="s">
         <v>10</v>
       </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121" t="s">
+      <c r="V121" t="s">
+        <v>10</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121" t="s">
         <v>11</v>
       </c>
-      <c r="X121" s="4" t="s">
+      <c r="Y121" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>8119443</v>
       </c>
@@ -12091,32 +12461,35 @@
       <c r="P122">
         <v>0</v>
       </c>
-      <c r="Q122" s="2">
+      <c r="Q122" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R122" s="2">
         <v>-3</v>
-      </c>
-      <c r="R122" t="s">
-        <v>482</v>
       </c>
       <c r="S122" t="s">
         <v>482</v>
       </c>
       <c r="T122" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="U122" t="s">
         <v>81</v>
       </c>
-      <c r="V122">
+      <c r="V122" t="s">
+        <v>81</v>
+      </c>
+      <c r="W122">
         <v>1</v>
       </c>
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>86</v>
       </c>
-      <c r="X122" s="4" t="s">
+      <c r="Y122" s="4" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7874562</v>
       </c>
@@ -12166,12 +12539,12 @@
       <c r="P123">
         <v>1334625.75</v>
       </c>
-      <c r="Q123" s="2">
+      <c r="Q123" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R123" s="2">
         <v>2</v>
       </c>
-      <c r="R123" t="s">
-        <v>10</v>
-      </c>
       <c r="S123" t="s">
         <v>10</v>
       </c>
@@ -12181,17 +12554,20 @@
       <c r="U123" t="s">
         <v>10</v>
       </c>
-      <c r="V123">
+      <c r="V123" t="s">
+        <v>10</v>
+      </c>
+      <c r="W123">
         <v>1</v>
       </c>
-      <c r="W123" t="s">
+      <c r="X123" t="s">
         <v>91</v>
       </c>
-      <c r="X123" s="4" t="s">
+      <c r="Y123" s="4" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7852432</v>
       </c>
@@ -12241,12 +12617,12 @@
       <c r="P124">
         <v>1561950</v>
       </c>
-      <c r="Q124" s="2">
+      <c r="Q124" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R124" s="2">
         <v>9</v>
       </c>
-      <c r="R124" t="s">
-        <v>10</v>
-      </c>
       <c r="S124" t="s">
         <v>10</v>
       </c>
@@ -12256,17 +12632,20 @@
       <c r="U124" t="s">
         <v>10</v>
       </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124" t="s">
+      <c r="V124" t="s">
+        <v>10</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124" t="s">
         <v>11</v>
       </c>
-      <c r="X124" s="4" t="s">
+      <c r="Y124" s="4" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7831436</v>
       </c>
@@ -12316,12 +12695,12 @@
       <c r="P125">
         <v>1267092.98</v>
       </c>
-      <c r="Q125" s="2">
+      <c r="Q125" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R125" s="2">
         <v>-1</v>
       </c>
-      <c r="R125" t="s">
-        <v>10</v>
-      </c>
       <c r="S125" t="s">
         <v>10</v>
       </c>
@@ -12331,17 +12710,20 @@
       <c r="U125" t="s">
         <v>10</v>
       </c>
-      <c r="V125">
+      <c r="V125" t="s">
+        <v>10</v>
+      </c>
+      <c r="W125">
         <v>2</v>
       </c>
-      <c r="W125" t="s">
+      <c r="X125" t="s">
         <v>77</v>
       </c>
-      <c r="X125" s="4" t="s">
+      <c r="Y125" s="4" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7737110</v>
       </c>
@@ -12391,11 +12773,11 @@
       <c r="P126">
         <v>1430876.59</v>
       </c>
-      <c r="Q126" s="2">
-        <v>6</v>
-      </c>
-      <c r="R126" t="s">
-        <v>10</v>
+      <c r="Q126" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R126" s="2">
+        <v>6</v>
       </c>
       <c r="S126" t="s">
         <v>10</v>
@@ -12406,17 +12788,20 @@
       <c r="U126" t="s">
         <v>10</v>
       </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="W126" t="s">
+      <c r="V126" t="s">
+        <v>10</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126" t="s">
         <v>11</v>
       </c>
-      <c r="X126" s="4" t="s">
+      <c r="Y126" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7711761</v>
       </c>
@@ -12466,32 +12851,35 @@
       <c r="P127">
         <v>35049647.049999997</v>
       </c>
-      <c r="Q127" s="2">
+      <c r="Q127" s="3">
+        <v>29639005.7299999</v>
+      </c>
+      <c r="R127" s="2">
         <v>1</v>
-      </c>
-      <c r="R127" t="s">
-        <v>482</v>
       </c>
       <c r="S127" t="s">
         <v>482</v>
       </c>
       <c r="T127" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U127" t="s">
         <v>10</v>
       </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127" t="s">
+      <c r="V127" t="s">
+        <v>10</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127" t="s">
         <v>11</v>
       </c>
-      <c r="X127" s="4" t="s">
+      <c r="Y127" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7704730</v>
       </c>
@@ -12541,32 +12929,35 @@
       <c r="P128">
         <v>2263252.31</v>
       </c>
-      <c r="Q128" s="2">
+      <c r="Q128" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R128" s="2">
         <v>4</v>
-      </c>
-      <c r="R128" t="s">
-        <v>81</v>
       </c>
       <c r="S128" t="s">
         <v>81</v>
       </c>
       <c r="T128" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="U128" t="s">
         <v>10</v>
       </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
-      <c r="W128" t="s">
+      <c r="V128" t="s">
+        <v>10</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128" t="s">
         <v>11</v>
       </c>
-      <c r="X128" s="4" t="s">
+      <c r="Y128" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7638265</v>
       </c>
@@ -12616,32 +13007,35 @@
       <c r="P129">
         <v>449136.5</v>
       </c>
-      <c r="Q129" s="2">
+      <c r="Q129" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R129" s="2">
         <v>-5</v>
       </c>
-      <c r="R129" t="s">
+      <c r="S129" t="s">
         <v>81</v>
       </c>
-      <c r="S129" t="s">
-        <v>10</v>
-      </c>
       <c r="T129" t="s">
         <v>10</v>
       </c>
       <c r="U129" t="s">
         <v>10</v>
       </c>
-      <c r="V129">
+      <c r="V129" t="s">
+        <v>10</v>
+      </c>
+      <c r="W129">
         <v>1</v>
       </c>
-      <c r="W129" t="s">
+      <c r="X129" t="s">
         <v>91</v>
       </c>
-      <c r="X129" s="4" t="s">
+      <c r="Y129" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7246887</v>
       </c>
@@ -12691,12 +13085,12 @@
       <c r="P130">
         <v>0</v>
       </c>
-      <c r="Q130" s="2">
+      <c r="Q130" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R130" s="2">
         <v>-2</v>
       </c>
-      <c r="R130" t="s">
-        <v>10</v>
-      </c>
       <c r="S130" t="s">
         <v>10</v>
       </c>
@@ -12704,19 +13098,22 @@
         <v>10</v>
       </c>
       <c r="U130" t="s">
+        <v>10</v>
+      </c>
+      <c r="V130" t="s">
         <v>81</v>
       </c>
-      <c r="V130">
-        <v>0</v>
-      </c>
-      <c r="W130" t="s">
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130" t="s">
         <v>11</v>
       </c>
-      <c r="X130" s="4" t="s">
+      <c r="Y130" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7026029</v>
       </c>
@@ -12766,12 +13163,12 @@
       <c r="P131">
         <v>573067.63</v>
       </c>
-      <c r="Q131" s="2">
+      <c r="Q131" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R131" s="2">
         <v>8</v>
       </c>
-      <c r="R131" t="s">
-        <v>10</v>
-      </c>
       <c r="S131" t="s">
         <v>10</v>
       </c>
@@ -12781,17 +13178,20 @@
       <c r="U131" t="s">
         <v>10</v>
       </c>
-      <c r="V131">
+      <c r="V131" t="s">
+        <v>10</v>
+      </c>
+      <c r="W131">
         <v>1</v>
       </c>
-      <c r="W131" t="s">
+      <c r="X131" t="s">
         <v>17</v>
       </c>
-      <c r="X131" s="4" t="s">
+      <c r="Y131" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6825885</v>
       </c>
@@ -12841,32 +13241,35 @@
       <c r="P132">
         <v>3706562.74</v>
       </c>
-      <c r="Q132" s="2">
-        <v>0</v>
-      </c>
-      <c r="R132" t="s">
-        <v>482</v>
+      <c r="Q132" s="3">
+        <v>2900512.98</v>
+      </c>
+      <c r="R132" s="2">
+        <v>0</v>
       </c>
       <c r="S132" t="s">
         <v>482</v>
       </c>
       <c r="T132" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U132" t="s">
         <v>10</v>
       </c>
-      <c r="V132">
-        <v>0</v>
-      </c>
-      <c r="W132" t="s">
+      <c r="V132" t="s">
+        <v>10</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132" t="s">
         <v>11</v>
       </c>
-      <c r="X132" s="4" t="s">
+      <c r="Y132" s="4" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6783615</v>
       </c>
@@ -12916,12 +13319,12 @@
       <c r="P133">
         <v>913058.7</v>
       </c>
-      <c r="Q133" s="2">
+      <c r="Q133" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R133" s="2">
         <v>1</v>
       </c>
-      <c r="R133" t="s">
-        <v>10</v>
-      </c>
       <c r="S133" t="s">
         <v>10</v>
       </c>
@@ -12931,17 +13334,20 @@
       <c r="U133" t="s">
         <v>10</v>
       </c>
-      <c r="V133">
+      <c r="V133" t="s">
+        <v>10</v>
+      </c>
+      <c r="W133">
         <v>2</v>
       </c>
-      <c r="W133" t="s">
+      <c r="X133" t="s">
         <v>77</v>
       </c>
-      <c r="X133" s="4" t="s">
+      <c r="Y133" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6522159</v>
       </c>
@@ -12991,12 +13397,12 @@
       <c r="P134">
         <v>2764010.73</v>
       </c>
-      <c r="Q134" s="2">
+      <c r="Q134" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R134" s="2">
         <v>-1</v>
       </c>
-      <c r="R134" t="s">
-        <v>10</v>
-      </c>
       <c r="S134" t="s">
         <v>10</v>
       </c>
@@ -13006,17 +13412,20 @@
       <c r="U134" t="s">
         <v>10</v>
       </c>
-      <c r="V134">
-        <v>0</v>
-      </c>
-      <c r="W134" t="s">
+      <c r="V134" t="s">
+        <v>10</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134" t="s">
         <v>11</v>
       </c>
-      <c r="X134" s="4" t="s">
+      <c r="Y134" s="4" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6354697</v>
       </c>
@@ -13066,11 +13475,11 @@
       <c r="P135">
         <v>6791312.6399999997</v>
       </c>
-      <c r="Q135" s="2">
-        <v>0</v>
-      </c>
-      <c r="R135" t="s">
-        <v>10</v>
+      <c r="Q135" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R135" s="2">
+        <v>0</v>
       </c>
       <c r="S135" t="s">
         <v>10</v>
@@ -13081,17 +13490,20 @@
       <c r="U135" t="s">
         <v>10</v>
       </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
-      <c r="W135" t="s">
+      <c r="V135" t="s">
+        <v>10</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135" t="s">
         <v>11</v>
       </c>
-      <c r="X135" s="4" t="s">
+      <c r="Y135" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6256217</v>
       </c>
@@ -13141,32 +13553,35 @@
       <c r="P136">
         <v>1171198.6299999999</v>
       </c>
-      <c r="Q136" s="2">
+      <c r="Q136" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R136" s="2">
         <v>-4</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>594</v>
       </c>
-      <c r="S136" t="s">
+      <c r="T136" t="s">
         <v>595</v>
       </c>
-      <c r="T136" t="s">
-        <v>10</v>
-      </c>
       <c r="U136" t="s">
         <v>10</v>
       </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
-      <c r="W136" t="s">
+      <c r="V136" t="s">
+        <v>10</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136" t="s">
         <v>11</v>
       </c>
-      <c r="X136" s="4" t="s">
+      <c r="Y136" s="4" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6049853</v>
       </c>
@@ -13216,12 +13631,12 @@
       <c r="P137">
         <v>780521.73</v>
       </c>
-      <c r="Q137" s="2">
+      <c r="Q137" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R137" s="2">
         <v>-8</v>
       </c>
-      <c r="R137" t="s">
-        <v>10</v>
-      </c>
       <c r="S137" t="s">
         <v>10</v>
       </c>
@@ -13231,17 +13646,20 @@
       <c r="U137" t="s">
         <v>10</v>
       </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
-      <c r="W137" t="s">
+      <c r="V137" t="s">
+        <v>10</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137" t="s">
         <v>11</v>
       </c>
-      <c r="X137" s="4" t="s">
+      <c r="Y137" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5618705</v>
       </c>
@@ -13291,12 +13709,12 @@
       <c r="P138">
         <v>400099.41</v>
       </c>
-      <c r="Q138" s="2">
+      <c r="Q138" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R138" s="2">
         <v>7</v>
       </c>
-      <c r="R138" t="s">
-        <v>10</v>
-      </c>
       <c r="S138" t="s">
         <v>10</v>
       </c>
@@ -13306,17 +13724,20 @@
       <c r="U138" t="s">
         <v>10</v>
       </c>
-      <c r="V138">
+      <c r="V138" t="s">
+        <v>10</v>
+      </c>
+      <c r="W138">
         <v>1</v>
       </c>
-      <c r="W138" t="s">
+      <c r="X138" t="s">
         <v>17</v>
       </c>
-      <c r="X138" s="4" t="s">
+      <c r="Y138" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5374449</v>
       </c>
@@ -13366,12 +13787,12 @@
       <c r="P139">
         <v>941263.11</v>
       </c>
-      <c r="Q139" s="2">
+      <c r="Q139" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R139" s="2">
         <v>5</v>
       </c>
-      <c r="R139" t="s">
-        <v>10</v>
-      </c>
       <c r="S139" t="s">
         <v>10</v>
       </c>
@@ -13381,17 +13802,20 @@
       <c r="U139" t="s">
         <v>10</v>
       </c>
-      <c r="V139">
+      <c r="V139" t="s">
+        <v>10</v>
+      </c>
+      <c r="W139">
         <v>1</v>
       </c>
-      <c r="W139" t="s">
+      <c r="X139" t="s">
         <v>91</v>
       </c>
-      <c r="X139" s="4" t="s">
+      <c r="Y139" s="4" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>5070188</v>
       </c>
@@ -13441,12 +13865,12 @@
       <c r="P140">
         <v>683987.24</v>
       </c>
-      <c r="Q140" s="2">
+      <c r="Q140" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R140" s="2">
         <v>-2</v>
       </c>
-      <c r="R140" t="s">
-        <v>10</v>
-      </c>
       <c r="S140" t="s">
         <v>10</v>
       </c>
@@ -13456,17 +13880,20 @@
       <c r="U140" t="s">
         <v>10</v>
       </c>
-      <c r="V140">
+      <c r="V140" t="s">
+        <v>10</v>
+      </c>
+      <c r="W140">
         <v>1</v>
       </c>
-      <c r="W140" t="s">
+      <c r="X140" t="s">
         <v>86</v>
       </c>
-      <c r="X140" s="4" t="s">
+      <c r="Y140" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4647085</v>
       </c>
@@ -13516,12 +13943,12 @@
       <c r="P141">
         <v>705642.76</v>
       </c>
-      <c r="Q141" s="2">
+      <c r="Q141" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R141" s="2">
         <v>2</v>
       </c>
-      <c r="R141" t="s">
-        <v>10</v>
-      </c>
       <c r="S141" t="s">
         <v>10</v>
       </c>
@@ -13531,17 +13958,20 @@
       <c r="U141" t="s">
         <v>10</v>
       </c>
-      <c r="V141">
-        <v>0</v>
-      </c>
-      <c r="W141" t="s">
+      <c r="V141" t="s">
+        <v>10</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141" t="s">
         <v>11</v>
       </c>
-      <c r="X141" s="4" t="s">
+      <c r="Y141" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4413969</v>
       </c>
@@ -13591,12 +14021,12 @@
       <c r="P142">
         <v>543181.43999999994</v>
       </c>
-      <c r="Q142" s="2">
+      <c r="Q142" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R142" s="2">
         <v>5</v>
       </c>
-      <c r="R142" t="s">
-        <v>10</v>
-      </c>
       <c r="S142" t="s">
         <v>10</v>
       </c>
@@ -13606,17 +14036,20 @@
       <c r="U142" t="s">
         <v>10</v>
       </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142" t="s">
+      <c r="V142" t="s">
+        <v>10</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142" t="s">
         <v>11</v>
       </c>
-      <c r="X142" s="4" t="s">
+      <c r="Y142" s="4" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3243625</v>
       </c>
@@ -13666,12 +14099,12 @@
       <c r="P143">
         <v>1452185.94</v>
       </c>
-      <c r="Q143" s="2">
+      <c r="Q143" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R143" s="2">
         <v>7</v>
       </c>
-      <c r="R143" t="s">
-        <v>10</v>
-      </c>
       <c r="S143" t="s">
         <v>10</v>
       </c>
@@ -13681,17 +14114,20 @@
       <c r="U143" t="s">
         <v>10</v>
       </c>
-      <c r="V143">
-        <v>0</v>
-      </c>
-      <c r="W143" t="s">
+      <c r="V143" t="s">
+        <v>10</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143" t="s">
         <v>11</v>
       </c>
-      <c r="X143" s="4" t="s">
+      <c r="Y143" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2743658</v>
       </c>
@@ -13741,32 +14177,35 @@
       <c r="P144">
         <v>2100616.33</v>
       </c>
-      <c r="Q144" s="2">
-        <v>0</v>
-      </c>
-      <c r="R144" t="s">
-        <v>81</v>
+      <c r="Q144" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R144" s="2">
+        <v>0</v>
       </c>
       <c r="S144" t="s">
         <v>81</v>
       </c>
       <c r="T144" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="U144" t="s">
         <v>10</v>
       </c>
-      <c r="V144">
+      <c r="V144" t="s">
+        <v>10</v>
+      </c>
+      <c r="W144">
         <v>1</v>
       </c>
-      <c r="W144" t="s">
+      <c r="X144" t="s">
         <v>86</v>
       </c>
-      <c r="X144" s="4" t="s">
+      <c r="Y144" s="4" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2726999</v>
       </c>
@@ -13816,12 +14255,12 @@
       <c r="P145">
         <v>2259518.9300000002</v>
       </c>
-      <c r="Q145" s="2">
+      <c r="Q145" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R145" s="2">
         <v>3</v>
       </c>
-      <c r="R145" t="s">
-        <v>10</v>
-      </c>
       <c r="S145" t="s">
         <v>10</v>
       </c>
@@ -13831,17 +14270,20 @@
       <c r="U145" t="s">
         <v>10</v>
       </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145" t="s">
+      <c r="V145" t="s">
+        <v>10</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145" t="s">
         <v>11</v>
       </c>
-      <c r="X145" s="4" t="s">
+      <c r="Y145" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2417724</v>
       </c>
@@ -13891,11 +14333,11 @@
       <c r="P146">
         <v>1277807.74</v>
       </c>
-      <c r="Q146" s="2">
-        <v>0</v>
-      </c>
-      <c r="R146" t="s">
-        <v>10</v>
+      <c r="Q146" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R146" s="2">
+        <v>0</v>
       </c>
       <c r="S146" t="s">
         <v>10</v>
@@ -13906,17 +14348,20 @@
       <c r="U146" t="s">
         <v>10</v>
       </c>
-      <c r="V146">
+      <c r="V146" t="s">
+        <v>10</v>
+      </c>
+      <c r="W146">
         <v>2</v>
       </c>
-      <c r="W146" t="s">
+      <c r="X146" t="s">
         <v>191</v>
       </c>
-      <c r="X146" s="4" t="s">
+      <c r="Y146" s="4" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1888173</v>
       </c>
@@ -13966,12 +14411,12 @@
       <c r="P147">
         <v>1105010.1299999999</v>
       </c>
-      <c r="Q147" s="2">
+      <c r="Q147" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R147" s="2">
         <v>-8</v>
       </c>
-      <c r="R147" t="s">
-        <v>10</v>
-      </c>
       <c r="S147" t="s">
         <v>10</v>
       </c>
@@ -13981,17 +14426,20 @@
       <c r="U147" t="s">
         <v>10</v>
       </c>
-      <c r="V147">
+      <c r="V147" t="s">
+        <v>10</v>
+      </c>
+      <c r="W147">
         <v>7</v>
       </c>
-      <c r="W147" t="s">
+      <c r="X147" t="s">
         <v>448</v>
       </c>
-      <c r="X147" s="4" t="s">
+      <c r="Y147" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1327194</v>
       </c>
@@ -14041,12 +14489,12 @@
       <c r="P148">
         <v>1883320.04</v>
       </c>
-      <c r="Q148" s="2">
+      <c r="Q148" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R148" s="2">
         <v>-2</v>
       </c>
-      <c r="R148" t="s">
-        <v>10</v>
-      </c>
       <c r="S148" t="s">
         <v>10</v>
       </c>
@@ -14056,17 +14504,20 @@
       <c r="U148" t="s">
         <v>10</v>
       </c>
-      <c r="V148">
+      <c r="V148" t="s">
+        <v>10</v>
+      </c>
+      <c r="W148">
         <v>1</v>
       </c>
-      <c r="W148" t="s">
+      <c r="X148" t="s">
         <v>91</v>
       </c>
-      <c r="X148" s="4" t="s">
+      <c r="Y148" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1311614</v>
       </c>
@@ -14116,12 +14567,12 @@
       <c r="P149">
         <v>647838.91999999899</v>
       </c>
-      <c r="Q149" s="2">
+      <c r="Q149" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R149" s="2">
         <v>-5</v>
       </c>
-      <c r="R149" t="s">
-        <v>10</v>
-      </c>
       <c r="S149" t="s">
         <v>10</v>
       </c>
@@ -14131,17 +14582,20 @@
       <c r="U149" t="s">
         <v>10</v>
       </c>
-      <c r="V149">
+      <c r="V149" t="s">
+        <v>10</v>
+      </c>
+      <c r="W149">
         <v>1</v>
       </c>
-      <c r="W149" t="s">
+      <c r="X149" t="s">
         <v>86</v>
       </c>
-      <c r="X149" s="4" t="s">
+      <c r="Y149" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1234692</v>
       </c>
@@ -14191,32 +14645,35 @@
       <c r="P150">
         <v>144571.89000000001</v>
       </c>
-      <c r="Q150" s="2">
+      <c r="Q150" s="3">
+        <v>108846.36</v>
+      </c>
+      <c r="R150" s="2">
         <v>-5</v>
-      </c>
-      <c r="R150" t="s">
-        <v>482</v>
       </c>
       <c r="S150" t="s">
         <v>482</v>
       </c>
       <c r="T150" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U150" t="s">
         <v>10</v>
       </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150" t="s">
+      <c r="V150" t="s">
+        <v>10</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150" t="s">
         <v>11</v>
       </c>
-      <c r="X150" s="4" t="s">
+      <c r="Y150" s="4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1157063</v>
       </c>
@@ -14266,12 +14723,12 @@
       <c r="P151">
         <v>716896.15</v>
       </c>
-      <c r="Q151" s="2">
+      <c r="Q151" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R151" s="2">
         <v>5</v>
       </c>
-      <c r="R151" t="s">
-        <v>10</v>
-      </c>
       <c r="S151" t="s">
         <v>10</v>
       </c>
@@ -14281,17 +14738,20 @@
       <c r="U151" t="s">
         <v>10</v>
       </c>
-      <c r="V151">
+      <c r="V151" t="s">
+        <v>10</v>
+      </c>
+      <c r="W151">
         <v>1</v>
       </c>
-      <c r="W151" t="s">
+      <c r="X151" t="s">
         <v>91</v>
       </c>
-      <c r="X151" s="4" t="s">
+      <c r="Y151" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1088231</v>
       </c>
@@ -14341,11 +14801,11 @@
       <c r="P152">
         <v>692487.72</v>
       </c>
-      <c r="Q152" s="2">
-        <v>0</v>
-      </c>
-      <c r="R152" t="s">
-        <v>10</v>
+      <c r="Q152" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R152" s="2">
+        <v>0</v>
       </c>
       <c r="S152" t="s">
         <v>10</v>
@@ -14356,17 +14816,20 @@
       <c r="U152" t="s">
         <v>10</v>
       </c>
-      <c r="V152">
+      <c r="V152" t="s">
+        <v>10</v>
+      </c>
+      <c r="W152">
         <v>4</v>
       </c>
-      <c r="W152" t="s">
+      <c r="X152" t="s">
         <v>252</v>
       </c>
-      <c r="X152" s="4" t="s">
+      <c r="Y152" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1077388</v>
       </c>
@@ -14416,32 +14879,35 @@
       <c r="P153">
         <v>33943.660000000003</v>
       </c>
-      <c r="Q153" s="2">
+      <c r="Q153" s="3">
+        <v>43767.27</v>
+      </c>
+      <c r="R153" s="2">
         <v>-3</v>
-      </c>
-      <c r="R153" t="s">
-        <v>482</v>
       </c>
       <c r="S153" t="s">
         <v>482</v>
       </c>
       <c r="T153" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U153" t="s">
         <v>10</v>
       </c>
-      <c r="V153">
-        <v>0</v>
-      </c>
-      <c r="W153" t="s">
+      <c r="V153" t="s">
+        <v>10</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153" t="s">
         <v>11</v>
       </c>
-      <c r="X153" s="4" t="s">
+      <c r="Y153" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>434972</v>
       </c>
@@ -14491,32 +14957,35 @@
       <c r="P154">
         <v>237567.52</v>
       </c>
-      <c r="Q154" s="2">
+      <c r="Q154" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R154" s="2">
         <v>2</v>
-      </c>
-      <c r="R154" t="s">
-        <v>81</v>
       </c>
       <c r="S154" t="s">
         <v>81</v>
       </c>
       <c r="T154" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="U154" t="s">
         <v>10</v>
       </c>
-      <c r="V154">
-        <v>0</v>
-      </c>
-      <c r="W154" t="s">
+      <c r="V154" t="s">
+        <v>10</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154" t="s">
         <v>11</v>
       </c>
-      <c r="X154" s="4" t="s">
+      <c r="Y154" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>428265</v>
       </c>
@@ -14566,32 +15035,35 @@
       <c r="P155">
         <v>122988.01</v>
       </c>
-      <c r="Q155" s="2">
+      <c r="Q155" s="3">
+        <v>163965.87</v>
+      </c>
+      <c r="R155" s="2">
         <v>-7</v>
-      </c>
-      <c r="R155" t="s">
-        <v>482</v>
       </c>
       <c r="S155" t="s">
         <v>482</v>
       </c>
       <c r="T155" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U155" t="s">
         <v>10</v>
       </c>
-      <c r="V155">
-        <v>0</v>
-      </c>
-      <c r="W155" t="s">
+      <c r="V155" t="s">
+        <v>10</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155" t="s">
         <v>11</v>
       </c>
-      <c r="X155" s="4" t="s">
+      <c r="Y155" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>361856</v>
       </c>
@@ -14641,32 +15113,35 @@
       <c r="P156">
         <v>787000</v>
       </c>
-      <c r="Q156" s="2">
+      <c r="Q156" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="R156" s="2">
         <v>-6</v>
-      </c>
-      <c r="R156" t="s">
-        <v>482</v>
       </c>
       <c r="S156" t="s">
         <v>482</v>
       </c>
       <c r="T156" t="s">
+        <v>482</v>
+      </c>
+      <c r="U156" t="s">
         <v>81</v>
       </c>
-      <c r="U156" t="s">
-        <v>10</v>
-      </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
-      <c r="W156" t="s">
+      <c r="V156" t="s">
+        <v>10</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156" t="s">
         <v>11</v>
       </c>
-      <c r="X156" s="4" t="s">
+      <c r="Y156" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>188009</v>
       </c>
@@ -14716,33 +15191,36 @@
       <c r="P157">
         <v>1041174.22</v>
       </c>
-      <c r="Q157" s="2">
+      <c r="Q157" s="3">
+        <v>1917014.94</v>
+      </c>
+      <c r="R157" s="2">
         <v>8</v>
-      </c>
-      <c r="R157" t="s">
-        <v>482</v>
       </c>
       <c r="S157" t="s">
         <v>482</v>
       </c>
       <c r="T157" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="U157" t="s">
         <v>10</v>
       </c>
-      <c r="V157">
-        <v>0</v>
-      </c>
-      <c r="W157" t="s">
+      <c r="V157" t="s">
+        <v>10</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157" t="s">
         <v>11</v>
       </c>
-      <c r="X157" s="4" t="s">
+      <c r="Y157" s="4" t="s">
         <v>879</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1">
+  <autoFilter ref="A1:Y157">
     <sortState ref="A2:X157">
       <sortCondition descending="1" ref="A1"/>
     </sortState>

--- a/data/datos_patrimonio_final.xlsx
+++ b/data/datos_patrimonio_final.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="884">
   <si>
     <t>status</t>
   </si>
@@ -1691,9 +1691,6 @@
   </si>
   <si>
     <t>Ha sido vinculada con el grupo extremista La Resistencia, un colectivo de apoyo a Fuerza Popular caracterizado por actos violentos.</t>
-  </si>
-  <si>
-    <t>En 2023, la Fiscalía de Lavado de Activos le inició una investigación por la presunta “incompatibilidad de “capacidad económica para la compra de dos inmuebles".</t>
   </si>
   <si>
     <t>Un reportaje de Cuarto Poder denunció que la congresista habría plagiado su tesis de licenciatura y maestría.</t>
@@ -2725,12 +2722,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2951,8 +2949,8 @@
   </sheetPr>
   <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3016,7 +3014,7 @@
         <v>540</v>
       </c>
       <c r="L1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>541</v>
@@ -3031,7 +3029,7 @@
         <v>544</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>545</v>
@@ -3049,7 +3047,7 @@
         <v>549</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>550</v>
@@ -3130,16 +3128,16 @@
         <v>9</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z2" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -3150,10 +3148,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -3211,16 +3209,16 @@
         <v>9</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -3231,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -3256,7 +3254,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>556</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3">
         <v>1290240</v>
@@ -3292,16 +3290,16 @@
         <v>9</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z4" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -3373,16 +3371,16 @@
         <v>9</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z5" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -3393,10 +3391,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -3418,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L6" s="3">
         <v>410000</v>
@@ -3454,16 +3452,16 @@
         <v>9</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z6" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -3499,7 +3497,7 @@
         <v>92</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L7" s="3">
         <v>575407.35</v>
@@ -3516,7 +3514,7 @@
       <c r="P7" s="3">
         <v>1390089.7</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="5">
         <v>1357483.1099999901</v>
       </c>
       <c r="R7" s="2">
@@ -3541,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -3616,16 +3614,16 @@
         <v>9</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z8" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -3661,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -3697,16 +3695,16 @@
         <v>9</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z9" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -3717,10 +3715,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -3742,7 +3740,7 @@
         <v>31</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L10" s="3">
         <v>1171918.75</v>
@@ -3778,16 +3776,16 @@
         <v>9</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X10" s="3">
         <v>1</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -3823,7 +3821,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -3840,7 +3838,7 @@
       <c r="P11" s="3">
         <v>41363.089999999997</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="2">
@@ -3865,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -3904,7 +3902,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L12" s="3">
         <v>20000</v>
@@ -3940,16 +3938,16 @@
         <v>9</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z12" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -3960,10 +3958,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
@@ -3985,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -4021,16 +4019,16 @@
         <v>9</v>
       </c>
       <c r="W13" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z13" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -4066,7 +4064,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L14" s="3">
         <v>45568</v>
@@ -4102,16 +4100,16 @@
         <v>9</v>
       </c>
       <c r="W14" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z14" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -4122,10 +4120,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>43</v>
@@ -4147,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L15" s="3">
         <v>82500</v>
@@ -4183,16 +4181,16 @@
         <v>9</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z15" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -4228,7 +4226,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -4264,16 +4262,16 @@
         <v>9</v>
       </c>
       <c r="W16" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z16" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -4309,7 +4307,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -4326,7 +4324,7 @@
       <c r="P17" s="3">
         <v>369250</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="5">
         <v>369250</v>
       </c>
       <c r="R17" s="2">
@@ -4351,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -4390,7 +4388,7 @@
         <v>31</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L18" s="3">
         <v>616175.94999999995</v>
@@ -4426,16 +4424,16 @@
         <v>9</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z18" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -4471,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -4507,16 +4505,16 @@
         <v>9</v>
       </c>
       <c r="W19" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z19" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -4588,16 +4586,16 @@
         <v>9</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X20" s="3">
         <v>1</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -4633,7 +4631,7 @@
         <v>61</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L21" s="3">
         <v>585000</v>
@@ -4669,16 +4667,16 @@
         <v>9</v>
       </c>
       <c r="W21" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z21" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -4714,7 +4712,7 @@
         <v>431</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L22" s="3">
         <v>99208</v>
@@ -4731,7 +4729,7 @@
       <c r="P22" s="3">
         <v>825000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="5">
         <v>945000</v>
       </c>
       <c r="R22" s="2">
@@ -4756,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -4770,10 +4768,10 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>63</v>
@@ -4831,16 +4829,16 @@
         <v>9</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X23" s="3">
         <v>2</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -4851,10 +4849,10 @@
         <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>68</v>
@@ -4912,16 +4910,16 @@
         <v>9</v>
       </c>
       <c r="W24" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z24" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -4993,16 +4991,16 @@
         <v>9</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X25" s="3">
         <v>1</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -5013,10 +5011,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>75</v>
@@ -5074,16 +5072,16 @@
         <v>9</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X26" s="3">
         <v>1</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -5155,16 +5153,16 @@
         <v>9</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X27" s="3">
         <v>2</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -5236,16 +5234,16 @@
         <v>9</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -5256,10 +5254,10 @@
         <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>90</v>
@@ -5317,16 +5315,16 @@
         <v>9</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X29" s="3">
         <v>3</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -5352,7 +5350,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(H30,Hoja_2!$A$1:$B$30,2,FALSE)</f>
@@ -5362,7 +5360,7 @@
         <v>553</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L30" s="3">
         <v>41500</v>
@@ -5379,7 +5377,7 @@
       <c r="P30" s="3">
         <v>52555.16</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="5">
         <v>112106.42</v>
       </c>
       <c r="R30" s="2">
@@ -5404,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -5443,7 +5441,7 @@
         <v>31</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -5479,16 +5477,16 @@
         <v>69</v>
       </c>
       <c r="W31" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z31" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -5560,16 +5558,16 @@
         <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X32" s="3">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -5580,10 +5578,10 @@
         <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>101</v>
@@ -5641,16 +5639,16 @@
         <v>9</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X33" s="3">
         <v>2</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -5686,7 +5684,7 @@
         <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L34" s="3">
         <v>70000</v>
@@ -5722,16 +5720,16 @@
         <v>9</v>
       </c>
       <c r="W34" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z34" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -5767,7 +5765,7 @@
         <v>109</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L35" s="3">
         <v>6000</v>
@@ -5803,16 +5801,16 @@
         <v>9</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X35" s="3">
         <v>1</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -5848,7 +5846,7 @@
         <v>65</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L36" s="3">
         <v>7200</v>
@@ -5884,16 +5882,16 @@
         <v>9</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X36" s="3">
         <v>2</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -5929,7 +5927,7 @@
         <v>114</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L37" s="3">
         <v>70700</v>
@@ -5965,16 +5963,16 @@
         <v>9</v>
       </c>
       <c r="W37" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z37" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -6010,7 +6008,7 @@
         <v>109</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -6046,16 +6044,16 @@
         <v>9</v>
       </c>
       <c r="W38" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z38" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -6127,16 +6125,16 @@
         <v>9</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X39" s="3">
         <v>6</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -6172,7 +6170,7 @@
         <v>109</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L40" s="3">
         <v>7000</v>
@@ -6208,16 +6206,16 @@
         <v>69</v>
       </c>
       <c r="W40" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z40" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -6228,10 +6226,10 @@
         <v>125</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>126</v>
@@ -6289,16 +6287,16 @@
         <v>9</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -6334,7 +6332,7 @@
         <v>132</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -6370,16 +6368,16 @@
         <v>9</v>
       </c>
       <c r="W42" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z42" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -6451,16 +6449,16 @@
         <v>9</v>
       </c>
       <c r="W43" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z43" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -6513,7 +6511,7 @@
       <c r="P44" s="3">
         <v>399343.79</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="5">
         <v>379398.63</v>
       </c>
       <c r="R44" s="2">
@@ -6538,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -6577,7 +6575,7 @@
         <v>114</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L45" s="3">
         <v>250000</v>
@@ -6613,16 +6611,16 @@
         <v>69</v>
       </c>
       <c r="W45" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z45" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -6694,16 +6692,16 @@
         <v>9</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X46" s="3">
         <v>3</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -6714,10 +6712,10 @@
         <v>486</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>487</v>
@@ -6739,7 +6737,7 @@
         <v>65</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -6756,7 +6754,7 @@
       <c r="P47" s="3">
         <v>134800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="5">
         <v>167133.72</v>
       </c>
       <c r="R47" s="2">
@@ -6781,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -6795,10 +6793,10 @@
         <v>140</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>141</v>
@@ -6820,7 +6818,7 @@
         <v>109</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L48" s="3">
         <v>150000</v>
@@ -6856,16 +6854,16 @@
         <v>9</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z48" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
@@ -6901,7 +6899,7 @@
         <v>61</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L49" s="3">
         <v>71800</v>
@@ -6937,16 +6935,16 @@
         <v>9</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X49" s="3">
         <v>1</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
@@ -6982,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L50" s="3">
         <v>911000</v>
@@ -7018,16 +7016,16 @@
         <v>9</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X50" s="3">
         <v>2</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
@@ -7063,7 +7061,7 @@
         <v>508</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L51" s="3">
         <v>155000</v>
@@ -7080,7 +7078,7 @@
       <c r="P51" s="3">
         <v>345800</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="5">
         <v>0</v>
       </c>
       <c r="R51" s="2">
@@ -7105,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
@@ -7119,10 +7117,10 @@
         <v>478</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>479</v>
@@ -7144,7 +7142,7 @@
         <v>65</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L52" s="3">
         <v>288655.03999999998</v>
@@ -7161,7 +7159,7 @@
       <c r="P52" s="3">
         <v>40284.5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="5">
         <v>35462.69</v>
       </c>
       <c r="R52" s="2">
@@ -7186,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
@@ -7225,7 +7223,7 @@
         <v>65</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L53" s="3">
         <v>253250</v>
@@ -7242,7 +7240,7 @@
       <c r="P53" s="3">
         <v>811600</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="5">
         <v>680600</v>
       </c>
       <c r="R53" s="2">
@@ -7267,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
@@ -7281,10 +7279,10 @@
         <v>148</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>149</v>
@@ -7306,7 +7304,7 @@
         <v>13</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L54" s="3">
         <v>31703.94</v>
@@ -7342,16 +7340,16 @@
         <v>9</v>
       </c>
       <c r="W54" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z54" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -7387,7 +7385,7 @@
         <v>17</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L55" s="3">
         <v>432270</v>
@@ -7423,16 +7421,16 @@
         <v>9</v>
       </c>
       <c r="W55" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z55" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
@@ -7485,7 +7483,7 @@
       <c r="P56" s="3">
         <v>3286800</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="5">
         <v>3375083.26</v>
       </c>
       <c r="R56" s="2">
@@ -7510,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
@@ -7524,10 +7522,10 @@
         <v>153</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>154</v>
@@ -7549,7 +7547,7 @@
         <v>13</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L57" s="3">
         <v>348000</v>
@@ -7585,16 +7583,16 @@
         <v>9</v>
       </c>
       <c r="W57" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z57" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
@@ -7605,10 +7603,10 @@
         <v>155</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>156</v>
@@ -7630,7 +7628,7 @@
         <v>114</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L58" s="3">
         <v>193445.19</v>
@@ -7666,16 +7664,16 @@
         <v>9</v>
       </c>
       <c r="W58" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z58" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
@@ -7686,10 +7684,10 @@
         <v>157</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>158</v>
@@ -7747,16 +7745,16 @@
         <v>9</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X59" s="3">
         <v>2</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
@@ -7767,10 +7765,10 @@
         <v>161</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>162</v>
@@ -7828,16 +7826,16 @@
         <v>9</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X60" s="3">
         <v>2</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
@@ -7873,7 +7871,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -7909,16 +7907,16 @@
         <v>9</v>
       </c>
       <c r="W61" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z61" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
@@ -7990,16 +7988,16 @@
         <v>9</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X62" s="3">
         <v>1</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
@@ -8010,10 +8008,10 @@
         <v>433</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>434</v>
@@ -8035,7 +8033,7 @@
         <v>436</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L63" s="3">
         <v>290071.27</v>
@@ -8052,7 +8050,7 @@
       <c r="P63" s="3">
         <v>424353.27</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63" s="5">
         <v>365106.27</v>
       </c>
       <c r="R63" s="2">
@@ -8077,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
@@ -8091,10 +8089,10 @@
         <v>171</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>172</v>
@@ -8152,16 +8150,16 @@
         <v>9</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X64" s="3">
         <v>5</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
@@ -8197,7 +8195,7 @@
         <v>160</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
@@ -8233,16 +8231,16 @@
         <v>9</v>
       </c>
       <c r="W65" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z65" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
@@ -8278,7 +8276,7 @@
         <v>61</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L66" s="3">
         <v>7070000</v>
@@ -8314,16 +8312,16 @@
         <v>9</v>
       </c>
       <c r="W66" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z66" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
@@ -8395,16 +8393,16 @@
         <v>9</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X67" s="3">
         <v>1</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
@@ -8415,10 +8413,10 @@
         <v>184</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>185</v>
@@ -8440,7 +8438,7 @@
         <v>114</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
@@ -8476,16 +8474,16 @@
         <v>9</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X68" s="3">
         <v>2</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
@@ -8557,16 +8555,16 @@
         <v>9</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X69" s="3">
         <v>1</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
@@ -8602,7 +8600,7 @@
         <v>65</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L70" s="3">
         <v>5000</v>
@@ -8638,16 +8636,16 @@
         <v>9</v>
       </c>
       <c r="W70" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z70" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
@@ -8658,10 +8656,10 @@
         <v>193</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>194</v>
@@ -8719,16 +8717,16 @@
         <v>9</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X71" s="3">
         <v>3</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
@@ -8800,16 +8798,16 @@
         <v>9</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X72" s="3">
         <v>3</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
@@ -8820,10 +8818,10 @@
         <v>200</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>201</v>
@@ -8881,16 +8879,16 @@
         <v>9</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X73" s="3">
         <v>4</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
@@ -8962,16 +8960,16 @@
         <v>9</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X74" s="3">
         <v>4</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
@@ -9007,7 +9005,7 @@
         <v>459</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L75" s="3">
         <v>378226.17</v>
@@ -9024,7 +9022,7 @@
       <c r="P75" s="3">
         <v>1021058.24</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75" s="5">
         <v>1151775.82</v>
       </c>
       <c r="R75" s="2">
@@ -9049,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
@@ -9063,10 +9061,10 @@
         <v>206</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>207</v>
@@ -9124,16 +9122,16 @@
         <v>69</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X76" s="3">
         <v>1</v>
       </c>
       <c r="Y76" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
@@ -9169,7 +9167,7 @@
         <v>160</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L77" s="3">
         <v>4000</v>
@@ -9205,16 +9203,16 @@
         <v>9</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X77" s="3">
         <v>1</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
@@ -9240,17 +9238,17 @@
         <v>5</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I78">
         <f>VLOOKUP(H78,Hoja_2!$A$1:$B$30,2,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>464</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L78" s="3">
         <v>351310.07</v>
@@ -9267,7 +9265,7 @@
       <c r="P78" s="3">
         <v>4160384.39</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="5">
         <v>0</v>
       </c>
       <c r="R78" s="2">
@@ -9292,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="Y78" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
@@ -9306,10 +9304,10 @@
         <v>212</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>213</v>
@@ -9367,16 +9365,16 @@
         <v>9</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X79" s="3">
         <v>4</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
@@ -9387,10 +9385,10 @@
         <v>215</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>216</v>
@@ -9412,7 +9410,7 @@
         <v>7</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L80" s="3">
         <v>13038813.01</v>
@@ -9448,16 +9446,16 @@
         <v>9</v>
       </c>
       <c r="W80" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z80" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
@@ -9468,10 +9466,10 @@
         <v>217</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>218</v>
@@ -9493,7 +9491,7 @@
         <v>13</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L81" s="3">
         <v>46797.07</v>
@@ -9529,16 +9527,16 @@
         <v>69</v>
       </c>
       <c r="W81" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z81" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
@@ -9574,7 +9572,7 @@
         <v>7</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L82" s="3">
         <v>71000</v>
@@ -9610,16 +9608,16 @@
         <v>9</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X82" s="3">
         <v>1</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
@@ -9655,7 +9653,7 @@
         <v>470</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L83" s="3">
         <v>5000</v>
@@ -9672,7 +9670,7 @@
       <c r="P83" s="3">
         <v>2137718.9</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="5">
         <v>172049.61</v>
       </c>
       <c r="R83" s="2">
@@ -9697,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z83" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
@@ -9711,10 +9709,10 @@
         <v>471</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>472</v>
@@ -9736,7 +9734,7 @@
         <v>474</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
@@ -9753,7 +9751,7 @@
       <c r="P84" s="3">
         <v>15000</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q84" s="5">
         <v>690000</v>
       </c>
       <c r="R84" s="2">
@@ -9778,10 +9776,10 @@
         <v>0</v>
       </c>
       <c r="Y84" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
@@ -9853,16 +9851,16 @@
         <v>9</v>
       </c>
       <c r="W85" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z85" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
@@ -9873,10 +9871,10 @@
         <v>225</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>226</v>
@@ -9898,7 +9896,7 @@
         <v>109</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L86" s="3">
         <v>188327.15</v>
@@ -9934,16 +9932,16 @@
         <v>9</v>
       </c>
       <c r="W86" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z86" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
@@ -9954,10 +9952,10 @@
         <v>227</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>228</v>
@@ -10015,16 +10013,16 @@
         <v>9</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X87" s="3">
         <v>1</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
@@ -10060,7 +10058,7 @@
         <v>17</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L88" s="3">
         <v>629176</v>
@@ -10096,16 +10094,16 @@
         <v>9</v>
       </c>
       <c r="W88" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z88" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
@@ -10177,16 +10175,16 @@
         <v>9</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X89" s="3">
         <v>1</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
@@ -10222,7 +10220,7 @@
         <v>81</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L90" s="3">
         <v>3483040</v>
@@ -10258,16 +10256,16 @@
         <v>9</v>
       </c>
       <c r="W90" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z90" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
@@ -10303,7 +10301,7 @@
         <v>61</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L91" s="3">
         <v>30000</v>
@@ -10339,16 +10337,16 @@
         <v>9</v>
       </c>
       <c r="W91" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z91" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
@@ -10384,7 +10382,7 @@
         <v>7</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L92" s="3">
         <v>1944000</v>
@@ -10420,16 +10418,16 @@
         <v>9</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X92" s="3">
         <v>4</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
@@ -10440,10 +10438,10 @@
         <v>476</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>477</v>
@@ -10465,7 +10463,7 @@
         <v>7</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L93" s="3">
         <v>34278768.25</v>
@@ -10482,7 +10480,7 @@
       <c r="P93" s="3">
         <v>88164515.640000001</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q93" s="5">
         <v>133465277.42</v>
       </c>
       <c r="R93" s="2">
@@ -10507,10 +10505,10 @@
         <v>0</v>
       </c>
       <c r="Y93" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
@@ -10521,10 +10519,10 @@
         <v>246</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>247</v>
@@ -10546,7 +10544,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L94" s="3">
         <v>2417201.33</v>
@@ -10582,16 +10580,16 @@
         <v>9</v>
       </c>
       <c r="W94" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z94" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
@@ -10663,16 +10661,16 @@
         <v>9</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X95" s="3">
         <v>2</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
@@ -10683,10 +10681,10 @@
         <v>252</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>253</v>
@@ -10708,7 +10706,7 @@
         <v>7</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L96" s="3">
         <v>2733173.93</v>
@@ -10744,16 +10742,16 @@
         <v>9</v>
       </c>
       <c r="W96" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z96" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
@@ -10825,16 +10823,16 @@
         <v>9</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X97" s="3">
         <v>2</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
@@ -10870,7 +10868,7 @@
         <v>87</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L98" s="3">
         <v>450000</v>
@@ -10906,16 +10904,16 @@
         <v>9</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X98" s="3">
         <v>1</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -10951,7 +10949,7 @@
         <v>109</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L99" s="3">
         <v>124500</v>
@@ -10987,16 +10985,16 @@
         <v>9</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X99" s="3">
         <v>2</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Z99" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
@@ -11007,10 +11005,10 @@
         <v>264</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>265</v>
@@ -11032,7 +11030,7 @@
         <v>109</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L100" s="3">
         <v>106000</v>
@@ -11068,16 +11066,16 @@
         <v>9</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X100" s="3">
         <v>2</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Z100" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
@@ -11113,7 +11111,7 @@
         <v>13</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L101" s="3">
         <v>780200</v>
@@ -11149,16 +11147,16 @@
         <v>9</v>
       </c>
       <c r="W101" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z101" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
@@ -11169,10 +11167,10 @@
         <v>269</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>270</v>
@@ -11194,7 +11192,7 @@
         <v>81</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L102" s="3">
         <v>907339.53</v>
@@ -11230,16 +11228,16 @@
         <v>9</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z102" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
@@ -11250,10 +11248,10 @@
         <v>271</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>272</v>
@@ -11275,7 +11273,7 @@
         <v>114</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L103" s="3">
         <v>0</v>
@@ -11311,16 +11309,16 @@
         <v>9</v>
       </c>
       <c r="W103" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X103" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z103" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
@@ -11356,7 +11354,7 @@
         <v>65</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L104" s="3">
         <v>387608</v>
@@ -11392,16 +11390,16 @@
         <v>9</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X104" s="3">
         <v>2</v>
       </c>
       <c r="Y104" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z104" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
@@ -11437,7 +11435,7 @@
         <v>31</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L105" s="3">
         <v>8313076</v>
@@ -11473,16 +11471,16 @@
         <v>9</v>
       </c>
       <c r="W105" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X105" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z105" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
@@ -11518,7 +11516,7 @@
         <v>7</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L106" s="3">
         <v>0</v>
@@ -11554,16 +11552,16 @@
         <v>9</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X106" s="3">
         <v>2</v>
       </c>
       <c r="Y106" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z106" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
@@ -11599,7 +11597,7 @@
         <v>81</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L107" s="3">
         <v>1558253</v>
@@ -11635,16 +11633,16 @@
         <v>9</v>
       </c>
       <c r="W107" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X107" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z107" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
@@ -11680,7 +11678,7 @@
         <v>7</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L108" s="3">
         <v>3758062.04</v>
@@ -11716,16 +11714,16 @@
         <v>9</v>
       </c>
       <c r="W108" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X108" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z108" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
@@ -11761,7 +11759,7 @@
         <v>61</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L109" s="3">
         <v>25000</v>
@@ -11797,16 +11795,16 @@
         <v>9</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X109" s="3">
         <v>2</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z109" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
@@ -11842,7 +11840,7 @@
         <v>92</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L110" s="3">
         <v>4652000</v>
@@ -11878,16 +11876,16 @@
         <v>9</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X110" s="3">
         <v>2</v>
       </c>
       <c r="Y110" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
@@ -11923,7 +11921,7 @@
         <v>132</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L111" s="3">
         <v>514758</v>
@@ -11959,16 +11957,16 @@
         <v>9</v>
       </c>
       <c r="W111" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X111" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z111" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
@@ -12004,7 +12002,7 @@
         <v>17</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L112" s="3">
         <v>0</v>
@@ -12040,16 +12038,16 @@
         <v>9</v>
       </c>
       <c r="W112" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X112" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z112" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
@@ -12060,10 +12058,10 @@
         <v>300</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>301</v>
@@ -12085,7 +12083,7 @@
         <v>13</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L113" s="3">
         <v>53000</v>
@@ -12121,16 +12119,16 @@
         <v>9</v>
       </c>
       <c r="W113" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X113" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z113" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
@@ -12166,7 +12164,7 @@
         <v>61</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L114" s="3">
         <v>0</v>
@@ -12202,16 +12200,16 @@
         <v>9</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X114" s="3">
         <v>5</v>
       </c>
       <c r="Y114" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Z114" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
@@ -12247,7 +12245,7 @@
         <v>7</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L115" s="3">
         <v>450000</v>
@@ -12283,16 +12281,16 @@
         <v>9</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X115" s="3">
         <v>2</v>
       </c>
       <c r="Y115" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z115" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
@@ -12303,10 +12301,10 @@
         <v>308</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>309</v>
@@ -12328,7 +12326,7 @@
         <v>92</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L116" s="3">
         <v>87000</v>
@@ -12364,16 +12362,16 @@
         <v>9</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X116" s="3">
         <v>1</v>
       </c>
       <c r="Y116" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
@@ -12445,16 +12443,16 @@
         <v>9</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X117" s="3">
         <v>1</v>
       </c>
       <c r="Y117" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z117" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
@@ -12490,7 +12488,7 @@
         <v>132</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L118" s="3">
         <v>812001.61</v>
@@ -12526,16 +12524,16 @@
         <v>9</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X118" s="3">
         <v>1</v>
       </c>
       <c r="Y118" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z118" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
@@ -12571,7 +12569,7 @@
         <v>13</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L119" s="3">
         <v>3892296</v>
@@ -12607,16 +12605,16 @@
         <v>9</v>
       </c>
       <c r="W119" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X119" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X119" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z119" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
@@ -12652,7 +12650,7 @@
         <v>13</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L120" s="3">
         <v>300000</v>
@@ -12688,16 +12686,16 @@
         <v>9</v>
       </c>
       <c r="W120" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X120" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X120" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y120" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z120" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
@@ -12733,7 +12731,7 @@
         <v>17</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L121" s="3">
         <v>347329.74</v>
@@ -12769,16 +12767,16 @@
         <v>9</v>
       </c>
       <c r="W121" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X121" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X121" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y121" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z121" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
@@ -12789,10 +12787,10 @@
         <v>481</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>482</v>
@@ -12831,7 +12829,7 @@
       <c r="P122" s="3">
         <v>0</v>
       </c>
-      <c r="Q122" s="3">
+      <c r="Q122" s="5">
         <v>2000</v>
       </c>
       <c r="R122" s="2">
@@ -12856,10 +12854,10 @@
         <v>1</v>
       </c>
       <c r="Y122" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z122" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
@@ -12895,7 +12893,7 @@
         <v>65</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L123" s="3">
         <v>557000</v>
@@ -12931,16 +12929,16 @@
         <v>9</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X123" s="3">
         <v>1</v>
       </c>
       <c r="Y123" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
@@ -12951,10 +12949,10 @@
         <v>329</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>330</v>
@@ -12976,7 +12974,7 @@
         <v>31</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L124" s="3">
         <v>1959300</v>
@@ -13012,16 +13010,16 @@
         <v>9</v>
       </c>
       <c r="W124" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X124" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X124" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y124" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z124" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
@@ -13032,10 +13030,10 @@
         <v>331</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>332</v>
@@ -13057,7 +13055,7 @@
         <v>13</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L125" s="3">
         <v>400992.3</v>
@@ -13093,16 +13091,16 @@
         <v>9</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X125" s="3">
         <v>2</v>
       </c>
       <c r="Y125" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z125" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
@@ -13174,16 +13172,16 @@
         <v>9</v>
       </c>
       <c r="W126" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X126" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X126" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y126" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z126" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
@@ -13219,7 +13217,7 @@
         <v>422</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L127" s="3">
         <v>3415880.46999999</v>
@@ -13236,7 +13234,7 @@
       <c r="P127" s="3">
         <v>35049647.049999997</v>
       </c>
-      <c r="Q127" s="3">
+      <c r="Q127" s="5">
         <v>29639005.7299999</v>
       </c>
       <c r="R127" s="2">
@@ -13261,10 +13259,10 @@
         <v>0</v>
       </c>
       <c r="Y127" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z127" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
@@ -13300,7 +13298,7 @@
         <v>13</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L128" s="3">
         <v>0</v>
@@ -13336,16 +13334,16 @@
         <v>9</v>
       </c>
       <c r="W128" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X128" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X128" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z128" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
@@ -13417,16 +13415,16 @@
         <v>9</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X129" s="3">
         <v>1</v>
       </c>
       <c r="Y129" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z129" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
@@ -13437,10 +13435,10 @@
         <v>343</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>344</v>
@@ -13462,7 +13460,7 @@
         <v>61</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L130" s="3">
         <v>19743491.079999998</v>
@@ -13498,16 +13496,16 @@
         <v>69</v>
       </c>
       <c r="W130" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X130" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X130" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y130" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z130" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
@@ -13543,7 +13541,7 @@
         <v>31</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L131" s="3">
         <v>776860</v>
@@ -13579,16 +13577,16 @@
         <v>9</v>
       </c>
       <c r="W131" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X131" s="3">
         <v>1</v>
       </c>
       <c r="Y131" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
@@ -13624,7 +13622,7 @@
         <v>442</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L132" s="3">
         <v>1727382.6</v>
@@ -13641,7 +13639,7 @@
       <c r="P132" s="3">
         <v>3706562.74</v>
       </c>
-      <c r="Q132" s="3">
+      <c r="Q132" s="5">
         <v>2900512.98</v>
       </c>
       <c r="R132" s="2">
@@ -13666,10 +13664,10 @@
         <v>0</v>
       </c>
       <c r="Y132" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z132" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
@@ -13680,10 +13678,10 @@
         <v>348</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>349</v>
@@ -13741,16 +13739,16 @@
         <v>9</v>
       </c>
       <c r="W133" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X133" s="3">
         <v>2</v>
       </c>
       <c r="Y133" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z133" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
@@ -13822,16 +13820,16 @@
         <v>9</v>
       </c>
       <c r="W134" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X134" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X134" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z134" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
@@ -13842,10 +13840,10 @@
         <v>354</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>355</v>
@@ -13867,7 +13865,7 @@
         <v>109</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L135" s="3">
         <v>3251062.88</v>
@@ -13903,16 +13901,16 @@
         <v>9</v>
       </c>
       <c r="W135" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X135" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X135" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z135" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
@@ -13948,7 +13946,7 @@
         <v>109</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L136" s="3">
         <v>408456.06</v>
@@ -13984,16 +13982,16 @@
         <v>9</v>
       </c>
       <c r="W136" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X136" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z136" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
@@ -14029,7 +14027,7 @@
         <v>31</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L137" s="3">
         <v>637692.4</v>
@@ -14065,16 +14063,16 @@
         <v>9</v>
       </c>
       <c r="W137" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X137" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z137" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
@@ -14146,16 +14144,16 @@
         <v>9</v>
       </c>
       <c r="W138" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X138" s="3">
         <v>1</v>
       </c>
       <c r="Y138" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z138" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
@@ -14227,16 +14225,16 @@
         <v>9</v>
       </c>
       <c r="W139" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X139" s="3">
         <v>1</v>
       </c>
       <c r="Y139" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z139" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
@@ -14272,7 +14270,7 @@
         <v>7</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L140" s="3">
         <v>1030000</v>
@@ -14308,16 +14306,16 @@
         <v>9</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X140" s="3">
         <v>1</v>
       </c>
       <c r="Y140" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
@@ -14353,7 +14351,7 @@
         <v>114</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L141" s="3">
         <v>241769.63</v>
@@ -14389,16 +14387,16 @@
         <v>9</v>
       </c>
       <c r="W141" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X141" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X141" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y141" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z141" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
@@ -14434,7 +14432,7 @@
         <v>114</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L142" s="3">
         <v>45000</v>
@@ -14470,16 +14468,16 @@
         <v>9</v>
       </c>
       <c r="W142" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X142" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X142" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z142" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
@@ -14490,10 +14488,10 @@
         <v>375</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>376</v>
@@ -14551,16 +14549,16 @@
         <v>9</v>
       </c>
       <c r="W143" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X143" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X143" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z143" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
@@ -14571,10 +14569,10 @@
         <v>377</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>378</v>
@@ -14596,7 +14594,7 @@
         <v>65</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L144" s="3">
         <v>1789000</v>
@@ -14632,16 +14630,16 @@
         <v>9</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X144" s="3">
         <v>1</v>
       </c>
       <c r="Y144" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
@@ -14677,7 +14675,7 @@
         <v>13</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L145" s="3">
         <v>1111000</v>
@@ -14713,16 +14711,16 @@
         <v>9</v>
       </c>
       <c r="W145" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X145" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X145" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y145" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z145" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
@@ -14794,16 +14792,16 @@
         <v>9</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X146" s="3">
         <v>2</v>
       </c>
       <c r="Y146" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Z146" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
@@ -14875,16 +14873,16 @@
         <v>9</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X147" s="3">
         <v>7</v>
       </c>
       <c r="Y147" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Z147" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
@@ -14956,16 +14954,16 @@
         <v>9</v>
       </c>
       <c r="W148" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X148" s="3">
         <v>1</v>
       </c>
       <c r="Y148" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
@@ -15001,7 +14999,7 @@
         <v>109</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L149" s="3">
         <v>123307.98</v>
@@ -15037,16 +15035,16 @@
         <v>9</v>
       </c>
       <c r="W149" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X149" s="3">
         <v>1</v>
       </c>
       <c r="Y149" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z149" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
@@ -15082,7 +15080,7 @@
         <v>450</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L150" s="3">
         <v>15000</v>
@@ -15099,7 +15097,7 @@
       <c r="P150" s="3">
         <v>144571.89000000001</v>
       </c>
-      <c r="Q150" s="3">
+      <c r="Q150" s="5">
         <v>108846.36</v>
       </c>
       <c r="R150" s="2">
@@ -15124,10 +15122,10 @@
         <v>0</v>
       </c>
       <c r="Y150" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z150" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
@@ -15199,16 +15197,16 @@
         <v>9</v>
       </c>
       <c r="W151" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X151" s="3">
         <v>1</v>
       </c>
       <c r="Y151" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z151" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
@@ -15280,16 +15278,16 @@
         <v>9</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X152" s="3">
         <v>4</v>
       </c>
       <c r="Y152" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Z152" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
@@ -15325,7 +15323,7 @@
         <v>65</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L153" s="3">
         <v>196098.85</v>
@@ -15342,7 +15340,7 @@
       <c r="P153" s="3">
         <v>33943.660000000003</v>
       </c>
-      <c r="Q153" s="3">
+      <c r="Q153" s="5">
         <v>43767.27</v>
       </c>
       <c r="R153" s="2">
@@ -15367,10 +15365,10 @@
         <v>0</v>
       </c>
       <c r="Y153" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z153" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
@@ -15406,7 +15404,7 @@
         <v>109</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L154" s="3">
         <v>41250</v>
@@ -15442,16 +15440,16 @@
         <v>9</v>
       </c>
       <c r="W154" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X154" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y154" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="X154" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y154" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="Z154" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
@@ -15487,7 +15485,7 @@
         <v>516</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L155" s="3">
         <v>84011.45</v>
@@ -15504,7 +15502,7 @@
       <c r="P155" s="3">
         <v>122988.01</v>
       </c>
-      <c r="Q155" s="3">
+      <c r="Q155" s="5">
         <v>163965.87</v>
       </c>
       <c r="R155" s="2">
@@ -15529,10 +15527,10 @@
         <v>0</v>
       </c>
       <c r="Y155" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z155" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
@@ -15568,7 +15566,7 @@
         <v>7</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L156" s="3">
         <v>900</v>
@@ -15585,7 +15583,7 @@
       <c r="P156" s="3">
         <v>787000</v>
       </c>
-      <c r="Q156" s="3">
+      <c r="Q156" s="5">
         <v>0</v>
       </c>
       <c r="R156" s="2">
@@ -15610,10 +15608,10 @@
         <v>0</v>
       </c>
       <c r="Y156" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z156" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
@@ -15649,7 +15647,7 @@
         <v>524</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L157" s="3">
         <v>827701.98</v>
@@ -15666,7 +15664,7 @@
       <c r="P157" s="3">
         <v>1041174.22</v>
       </c>
-      <c r="Q157" s="3">
+      <c r="Q157" s="5">
         <v>1917014.94</v>
       </c>
       <c r="R157" s="2">
@@ -15691,10 +15689,10 @@
         <v>0</v>
       </c>
       <c r="Y157" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Z157" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -15850,7 +15848,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B17">
         <v>17</v>
